--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -1326,17 +1326,13 @@
         <v>314.9166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>309</v>
-      </c>
-      <c r="K27" t="n">
-        <v>309</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1376,11 +1372,7 @@
       <c r="K28" t="n">
         <v>309</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1457,12 +1449,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K30" t="n">
-        <v>311</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>309</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1501,11 +1497,7 @@
       <c r="K31" t="n">
         <v>311</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1582,12 +1574,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K33" t="n">
-        <v>310</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1621,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K34" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1658,16 +1654,14 @@
         <v>314.0166666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>310</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1701,16 +1695,14 @@
         <v>313.8833333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>310</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1744,16 +1736,14 @@
         <v>313.75</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>310</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1787,16 +1777,14 @@
         <v>313.6333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>311</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1830,16 +1818,14 @@
         <v>313.4833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>310</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1873,16 +1859,14 @@
         <v>313.35</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>311</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1916,16 +1900,14 @@
         <v>313.25</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>311</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1959,16 +1941,14 @@
         <v>313.1666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>312</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2002,16 +1982,14 @@
         <v>313.0833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>312</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2045,16 +2023,14 @@
         <v>313.0333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>312</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2088,16 +2064,14 @@
         <v>312.9833333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>313</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2131,16 +2105,14 @@
         <v>312.9333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>313</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2174,16 +2146,14 @@
         <v>312.8833333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>313</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2217,16 +2187,14 @@
         <v>312.85</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>314</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2260,16 +2228,14 @@
         <v>312.7833333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>312</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2310,7 +2276,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2344,16 +2310,14 @@
         <v>312.7333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>315</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2394,7 +2358,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2435,7 +2399,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2476,7 +2440,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2517,7 +2481,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2558,7 +2522,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2599,7 +2563,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2640,7 +2604,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2681,7 +2645,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2722,7 +2686,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2763,7 +2727,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2804,7 +2768,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2845,7 +2809,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2886,7 +2850,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2927,7 +2891,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2968,7 +2932,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3009,7 +2973,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3050,7 +3014,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3091,7 +3055,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3132,7 +3096,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3173,7 +3137,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3214,7 +3178,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3255,7 +3219,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3296,7 +3260,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3337,7 +3301,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3378,7 +3342,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3419,7 +3383,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3460,7 +3424,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3501,7 +3465,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3542,7 +3506,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3583,7 +3547,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3624,7 +3588,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3665,7 +3629,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3706,7 +3670,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3747,7 +3711,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3788,7 +3752,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3829,7 +3793,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3870,7 +3834,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3911,7 +3875,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3952,7 +3916,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3993,7 +3957,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4034,7 +3998,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4075,7 +4039,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4116,7 +4080,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4157,7 +4121,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4198,7 +4162,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4239,7 +4203,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4280,7 +4244,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4321,7 +4285,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4362,7 +4326,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4403,7 +4367,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4444,7 +4408,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4485,7 +4449,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4526,7 +4490,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4567,7 +4531,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4608,7 +4572,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4649,7 +4613,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4690,7 +4654,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4731,7 +4695,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4772,7 +4736,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4813,7 +4777,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4854,7 +4818,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4891,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1.046612903225806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4932,11 +4896,17 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>311</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4970,10 +4940,16 @@
         <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>311</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>1.043231511254019</v>
       </c>
     </row>
     <row r="116">
@@ -5002,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5037,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>319.05</v>
+        <v>319.2333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F3" t="n">
-        <v>6201</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>318.8166666666667</v>
+        <v>319.05</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F4" t="n">
-        <v>13849.8853</v>
+        <v>6201</v>
       </c>
       <c r="G4" t="n">
-        <v>318.55</v>
+        <v>318.8166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E5" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F5" t="n">
-        <v>1034</v>
+        <v>13849.8853</v>
       </c>
       <c r="G5" t="n">
-        <v>318.3333333333333</v>
+        <v>318.55</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F6" t="n">
-        <v>5621.9273</v>
+        <v>1034</v>
       </c>
       <c r="G6" t="n">
-        <v>318.15</v>
+        <v>318.3333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>314</v>
       </c>
       <c r="C7" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E7" t="n">
         <v>314</v>
       </c>
       <c r="F7" t="n">
-        <v>1090.8198</v>
+        <v>5621.9273</v>
       </c>
       <c r="G7" t="n">
-        <v>317.9666666666666</v>
+        <v>318.15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>314</v>
       </c>
       <c r="C8" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D8" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E8" t="n">
         <v>314</v>
       </c>
       <c r="F8" t="n">
-        <v>105</v>
+        <v>1090.8198</v>
       </c>
       <c r="G8" t="n">
-        <v>317.7</v>
+        <v>317.9666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>314</v>
       </c>
       <c r="F9" t="n">
-        <v>1483</v>
+        <v>105</v>
       </c>
       <c r="G9" t="n">
-        <v>317.45</v>
+        <v>317.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>314</v>
       </c>
       <c r="F10" t="n">
-        <v>4073.5185</v>
+        <v>1483</v>
       </c>
       <c r="G10" t="n">
-        <v>317.25</v>
+        <v>317.45</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>314</v>
       </c>
       <c r="F11" t="n">
-        <v>6291.4224</v>
+        <v>4073.5185</v>
       </c>
       <c r="G11" t="n">
-        <v>317.0333333333334</v>
+        <v>317.25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>314</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0019</v>
+        <v>6291.4224</v>
       </c>
       <c r="G12" t="n">
-        <v>316.8</v>
+        <v>317.0333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F13" t="n">
-        <v>520.67</v>
+        <v>12.0019</v>
       </c>
       <c r="G13" t="n">
-        <v>316.5666666666667</v>
+        <v>316.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>313</v>
       </c>
       <c r="F14" t="n">
-        <v>1118</v>
+        <v>520.67</v>
       </c>
       <c r="G14" t="n">
-        <v>316.4666666666666</v>
+        <v>316.5666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>313</v>
       </c>
       <c r="F15" t="n">
-        <v>133.2564</v>
+        <v>1118</v>
       </c>
       <c r="G15" t="n">
-        <v>316.35</v>
+        <v>316.4666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>313</v>
       </c>
       <c r="F16" t="n">
-        <v>7969.5844</v>
+        <v>133.2564</v>
       </c>
       <c r="G16" t="n">
-        <v>316.2166666666666</v>
+        <v>316.35</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>313</v>
       </c>
       <c r="F17" t="n">
-        <v>318.4892</v>
+        <v>7969.5844</v>
       </c>
       <c r="G17" t="n">
-        <v>316.0833333333333</v>
+        <v>316.2166666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C18" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D18" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E18" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F18" t="n">
-        <v>946</v>
+        <v>318.4892</v>
       </c>
       <c r="G18" t="n">
-        <v>315.95</v>
+        <v>316.0833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>312</v>
       </c>
       <c r="F19" t="n">
-        <v>1892</v>
+        <v>946</v>
       </c>
       <c r="G19" t="n">
-        <v>315.85</v>
+        <v>315.95</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>312</v>
       </c>
       <c r="F20" t="n">
-        <v>477.9999</v>
+        <v>1892</v>
       </c>
       <c r="G20" t="n">
-        <v>315.75</v>
+        <v>315.85</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>312</v>
       </c>
       <c r="C21" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D21" t="n">
         <v>312</v>
       </c>
       <c r="E21" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F21" t="n">
-        <v>3584.0404</v>
+        <v>477.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>315.6333333333333</v>
+        <v>315.75</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C22" t="n">
         <v>311</v>
       </c>
       <c r="D22" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E22" t="n">
         <v>311</v>
       </c>
       <c r="F22" t="n">
-        <v>870.4939000000001</v>
+        <v>3584.0404</v>
       </c>
       <c r="G22" t="n">
-        <v>315.5166666666667</v>
+        <v>315.6333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>311</v>
       </c>
       <c r="F23" t="n">
-        <v>1569.948</v>
+        <v>870.4939000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>315.4166666666667</v>
+        <v>315.5166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C24" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D24" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E24" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F24" t="n">
-        <v>540</v>
+        <v>1569.948</v>
       </c>
       <c r="G24" t="n">
-        <v>315.3</v>
+        <v>315.4166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F25" t="n">
-        <v>1266.5386</v>
+        <v>540</v>
       </c>
       <c r="G25" t="n">
-        <v>315.1666666666667</v>
+        <v>315.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>309</v>
       </c>
       <c r="F26" t="n">
-        <v>1936.6242</v>
+        <v>1266.5386</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0333333333334</v>
+        <v>315.1666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>309</v>
       </c>
       <c r="F27" t="n">
-        <v>306.8705</v>
+        <v>1936.6242</v>
       </c>
       <c r="G27" t="n">
-        <v>314.9166666666667</v>
+        <v>315.0333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,23 +1355,19 @@
         <v>309</v>
       </c>
       <c r="F28" t="n">
-        <v>359.6816</v>
+        <v>306.8705</v>
       </c>
       <c r="G28" t="n">
-        <v>314.7833333333334</v>
+        <v>314.9166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>309</v>
-      </c>
-      <c r="K28" t="n">
-        <v>309</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1394,110 +1390,102 @@
         <v>309</v>
       </c>
       <c r="F29" t="n">
+        <v>359.6816</v>
+      </c>
+      <c r="G29" t="n">
+        <v>314.7833333333334</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>309</v>
+      </c>
+      <c r="C30" t="n">
+        <v>309</v>
+      </c>
+      <c r="D30" t="n">
+        <v>309</v>
+      </c>
+      <c r="E30" t="n">
+        <v>309</v>
+      </c>
+      <c r="F30" t="n">
         <v>3866.0864</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>314.65</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>309</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>309</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>311</v>
+      </c>
+      <c r="C31" t="n">
+        <v>311</v>
+      </c>
+      <c r="D31" t="n">
+        <v>311</v>
+      </c>
+      <c r="E31" t="n">
+        <v>311</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>314.55</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>309</v>
+      </c>
+      <c r="K31" t="n">
+        <v>309</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>311</v>
-      </c>
-      <c r="C30" t="n">
-        <v>311</v>
-      </c>
-      <c r="D30" t="n">
-        <v>311</v>
-      </c>
-      <c r="E30" t="n">
-        <v>311</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" t="n">
-        <v>314.55</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>309</v>
-      </c>
-      <c r="K30" t="n">
-        <v>309</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>311</v>
-      </c>
-      <c r="C31" t="n">
-        <v>311</v>
-      </c>
-      <c r="D31" t="n">
-        <v>311</v>
-      </c>
-      <c r="E31" t="n">
-        <v>311</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1465.362</v>
-      </c>
-      <c r="G31" t="n">
-        <v>314.4333333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>311</v>
-      </c>
-      <c r="K31" t="n">
-        <v>311</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1519,10 +1507,10 @@
         <v>311</v>
       </c>
       <c r="F32" t="n">
-        <v>1392.094</v>
+        <v>1465.362</v>
       </c>
       <c r="G32" t="n">
-        <v>314.3666666666667</v>
+        <v>314.4333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1534,7 +1522,7 @@
         <v>311</v>
       </c>
       <c r="K32" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1550,40 +1538,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C33" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D33" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E33" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F33" t="n">
-        <v>1256.7342</v>
+        <v>1392.094</v>
       </c>
       <c r="G33" t="n">
-        <v>314.2833333333334</v>
+        <v>314.3666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>311</v>
-      </c>
-      <c r="K33" t="n">
-        <v>311</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1593,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C34" t="n">
         <v>310</v>
@@ -1602,72 +1582,70 @@
         <v>310</v>
       </c>
       <c r="E34" t="n">
+        <v>310</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1256.7342</v>
+      </c>
+      <c r="G34" t="n">
+        <v>314.2833333333334</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>311</v>
+      </c>
+      <c r="K34" t="n">
+        <v>311</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>309</v>
       </c>
-      <c r="F34" t="n">
+      <c r="C35" t="n">
+        <v>310</v>
+      </c>
+      <c r="D35" t="n">
+        <v>310</v>
+      </c>
+      <c r="E35" t="n">
+        <v>309</v>
+      </c>
+      <c r="F35" t="n">
         <v>174.3081</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>314.15</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>310</v>
       </c>
-      <c r="K34" t="n">
-        <v>311</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K35" t="n">
+        <v>311</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>310</v>
-      </c>
-      <c r="C35" t="n">
-        <v>310</v>
-      </c>
-      <c r="D35" t="n">
-        <v>310</v>
-      </c>
-      <c r="E35" t="n">
-        <v>310</v>
-      </c>
-      <c r="F35" t="n">
-        <v>754.8457</v>
-      </c>
-      <c r="G35" t="n">
-        <v>314.0166666666667</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>311</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1689,18 +1667,20 @@
         <v>310</v>
       </c>
       <c r="F36" t="n">
-        <v>615.7406999999999</v>
+        <v>754.8457</v>
       </c>
       <c r="G36" t="n">
-        <v>313.8833333333333</v>
+        <v>314.0166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>310</v>
+      </c>
       <c r="K36" t="n">
         <v>311</v>
       </c>
@@ -1730,18 +1710,20 @@
         <v>310</v>
       </c>
       <c r="F37" t="n">
-        <v>318.4118</v>
+        <v>615.7406999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>313.75</v>
+        <v>313.8833333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>310</v>
+      </c>
       <c r="K37" t="n">
         <v>311</v>
       </c>
@@ -1759,30 +1741,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E38" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F38" t="n">
-        <v>189</v>
+        <v>318.4118</v>
       </c>
       <c r="G38" t="n">
-        <v>313.6333333333333</v>
+        <v>313.75</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>310</v>
+      </c>
       <c r="K38" t="n">
         <v>311</v>
       </c>
@@ -1800,30 +1784,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>311</v>
+      </c>
+      <c r="C39" t="n">
+        <v>311</v>
+      </c>
+      <c r="D39" t="n">
+        <v>311</v>
+      </c>
+      <c r="E39" t="n">
+        <v>311</v>
+      </c>
+      <c r="F39" t="n">
+        <v>189</v>
+      </c>
+      <c r="G39" t="n">
+        <v>313.6333333333333</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>310</v>
       </c>
-      <c r="C39" t="n">
-        <v>310</v>
-      </c>
-      <c r="D39" t="n">
-        <v>310</v>
-      </c>
-      <c r="E39" t="n">
-        <v>310</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3637.7817</v>
-      </c>
-      <c r="G39" t="n">
-        <v>313.4833333333333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>311</v>
       </c>
@@ -1841,30 +1827,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D40" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E40" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F40" t="n">
-        <v>8.9627</v>
+        <v>3637.7817</v>
       </c>
       <c r="G40" t="n">
-        <v>313.35</v>
+        <v>313.4833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>311</v>
+      </c>
       <c r="K40" t="n">
         <v>311</v>
       </c>
@@ -1894,18 +1882,20 @@
         <v>311</v>
       </c>
       <c r="F41" t="n">
-        <v>4.4939</v>
+        <v>8.9627</v>
       </c>
       <c r="G41" t="n">
-        <v>313.25</v>
+        <v>313.35</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>310</v>
+      </c>
       <c r="K41" t="n">
         <v>311</v>
       </c>
@@ -1923,30 +1913,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D42" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E42" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F42" t="n">
-        <v>668.9232</v>
+        <v>4.4939</v>
       </c>
       <c r="G42" t="n">
-        <v>313.1666666666667</v>
+        <v>313.25</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>311</v>
+      </c>
       <c r="K42" t="n">
         <v>311</v>
       </c>
@@ -1976,18 +1968,20 @@
         <v>312</v>
       </c>
       <c r="F43" t="n">
-        <v>1666.425</v>
+        <v>668.9232</v>
       </c>
       <c r="G43" t="n">
-        <v>313.0833333333333</v>
+        <v>313.1666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>311</v>
+      </c>
       <c r="K43" t="n">
         <v>311</v>
       </c>
@@ -2017,18 +2011,20 @@
         <v>312</v>
       </c>
       <c r="F44" t="n">
-        <v>554.7087</v>
+        <v>1666.425</v>
       </c>
       <c r="G44" t="n">
-        <v>313.0333333333334</v>
+        <v>313.0833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>312</v>
+      </c>
       <c r="K44" t="n">
         <v>311</v>
       </c>
@@ -2046,22 +2042,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C45" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D45" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F45" t="n">
-        <v>379</v>
+        <v>554.7087</v>
       </c>
       <c r="G45" t="n">
-        <v>312.9833333333333</v>
+        <v>313.0333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2099,18 +2095,20 @@
         <v>313</v>
       </c>
       <c r="F46" t="n">
-        <v>1930</v>
+        <v>379</v>
       </c>
       <c r="G46" t="n">
-        <v>312.9333333333333</v>
+        <v>312.9833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>312</v>
+      </c>
       <c r="K46" t="n">
         <v>311</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>1930</v>
       </c>
       <c r="G47" t="n">
-        <v>312.8833333333333</v>
+        <v>312.9333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2169,22 +2167,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D48" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E48" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F48" t="n">
-        <v>102.7354</v>
+        <v>1930</v>
       </c>
       <c r="G48" t="n">
-        <v>312.85</v>
+        <v>312.8833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2210,22 +2208,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C49" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D49" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E49" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F49" t="n">
-        <v>204.9531</v>
+        <v>102.7354</v>
       </c>
       <c r="G49" t="n">
-        <v>312.7833333333334</v>
+        <v>312.85</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2251,22 +2249,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C50" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D50" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E50" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>204.9531</v>
       </c>
       <c r="G50" t="n">
-        <v>312.75</v>
+        <v>312.7833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2292,22 +2290,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C51" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D51" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E51" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>312.7333333333333</v>
+        <v>312.75</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2333,22 +2331,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C52" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D52" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E52" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F52" t="n">
-        <v>56.5759</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>312.6833333333333</v>
+        <v>312.7333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2386,10 +2384,10 @@
         <v>313</v>
       </c>
       <c r="F53" t="n">
-        <v>5622.4636</v>
+        <v>56.5759</v>
       </c>
       <c r="G53" t="n">
-        <v>312.6166666666667</v>
+        <v>312.6833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2415,22 +2413,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C54" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D54" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E54" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F54" t="n">
-        <v>512.1319</v>
+        <v>5622.4636</v>
       </c>
       <c r="G54" t="n">
-        <v>312.5833333333333</v>
+        <v>312.6166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2456,22 +2454,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C55" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D55" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E55" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F55" t="n">
-        <v>1527.0773</v>
+        <v>512.1319</v>
       </c>
       <c r="G55" t="n">
-        <v>312.5333333333334</v>
+        <v>312.5833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2509,10 +2507,10 @@
         <v>314</v>
       </c>
       <c r="F56" t="n">
-        <v>7400</v>
+        <v>1527.0773</v>
       </c>
       <c r="G56" t="n">
-        <v>312.4833333333333</v>
+        <v>312.5333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2550,10 +2548,10 @@
         <v>314</v>
       </c>
       <c r="F57" t="n">
-        <v>453.136</v>
+        <v>7400</v>
       </c>
       <c r="G57" t="n">
-        <v>312.4666666666666</v>
+        <v>312.4833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2591,10 +2589,10 @@
         <v>314</v>
       </c>
       <c r="F58" t="n">
-        <v>693</v>
+        <v>453.136</v>
       </c>
       <c r="G58" t="n">
-        <v>312.45</v>
+        <v>312.4666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2632,10 +2630,10 @@
         <v>314</v>
       </c>
       <c r="F59" t="n">
-        <v>114</v>
+        <v>693</v>
       </c>
       <c r="G59" t="n">
-        <v>312.4333333333333</v>
+        <v>312.45</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2673,7 +2671,7 @@
         <v>314</v>
       </c>
       <c r="F60" t="n">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>312.4333333333333</v>
@@ -2714,10 +2712,10 @@
         <v>314</v>
       </c>
       <c r="F61" t="n">
-        <v>2215.23</v>
+        <v>480</v>
       </c>
       <c r="G61" t="n">
-        <v>312.4</v>
+        <v>312.4333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2755,10 +2753,10 @@
         <v>314</v>
       </c>
       <c r="F62" t="n">
-        <v>290</v>
+        <v>2215.23</v>
       </c>
       <c r="G62" t="n">
-        <v>312.3666666666667</v>
+        <v>312.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2796,10 +2794,10 @@
         <v>314</v>
       </c>
       <c r="F63" t="n">
-        <v>1561.6335</v>
+        <v>290</v>
       </c>
       <c r="G63" t="n">
-        <v>312.35</v>
+        <v>312.3666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2837,7 +2835,7 @@
         <v>314</v>
       </c>
       <c r="F64" t="n">
-        <v>946</v>
+        <v>1561.6335</v>
       </c>
       <c r="G64" t="n">
         <v>312.35</v>
@@ -2878,10 +2876,10 @@
         <v>314</v>
       </c>
       <c r="F65" t="n">
-        <v>843.4832</v>
+        <v>946</v>
       </c>
       <c r="G65" t="n">
-        <v>312.3333333333333</v>
+        <v>312.35</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2919,7 +2917,7 @@
         <v>314</v>
       </c>
       <c r="F66" t="n">
-        <v>2061.6291</v>
+        <v>843.4832</v>
       </c>
       <c r="G66" t="n">
         <v>312.3333333333333</v>
@@ -2960,10 +2958,10 @@
         <v>314</v>
       </c>
       <c r="F67" t="n">
-        <v>127.0566</v>
+        <v>2061.6291</v>
       </c>
       <c r="G67" t="n">
-        <v>312.3</v>
+        <v>312.3333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2989,22 +2987,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C68" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D68" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E68" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F68" t="n">
-        <v>275.8998</v>
+        <v>127.0566</v>
       </c>
       <c r="G68" t="n">
-        <v>312.3166666666667</v>
+        <v>312.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3042,10 +3040,10 @@
         <v>315</v>
       </c>
       <c r="F69" t="n">
-        <v>303.8222</v>
+        <v>275.8998</v>
       </c>
       <c r="G69" t="n">
-        <v>312.3333333333333</v>
+        <v>312.3166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3083,10 +3081,10 @@
         <v>315</v>
       </c>
       <c r="F70" t="n">
-        <v>99.9999</v>
+        <v>303.8222</v>
       </c>
       <c r="G70" t="n">
-        <v>312.35</v>
+        <v>312.3333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3124,10 +3122,10 @@
         <v>315</v>
       </c>
       <c r="F71" t="n">
-        <v>64.56950000000001</v>
+        <v>99.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>312.3666666666667</v>
+        <v>312.35</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3165,10 +3163,10 @@
         <v>315</v>
       </c>
       <c r="F72" t="n">
-        <v>1.8613</v>
+        <v>64.56950000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>312.3833333333333</v>
+        <v>312.3666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3206,10 +3204,10 @@
         <v>315</v>
       </c>
       <c r="F73" t="n">
-        <v>3004.3161</v>
+        <v>1.8613</v>
       </c>
       <c r="G73" t="n">
-        <v>312.4166666666667</v>
+        <v>312.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3235,22 +3233,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C74" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D74" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E74" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F74" t="n">
-        <v>9</v>
+        <v>3004.3161</v>
       </c>
       <c r="G74" t="n">
-        <v>312.4666666666666</v>
+        <v>312.4166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3279,19 +3277,19 @@
         <v>316</v>
       </c>
       <c r="C75" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D75" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E75" t="n">
         <v>316</v>
       </c>
       <c r="F75" t="n">
-        <v>46.5326</v>
+        <v>9</v>
       </c>
       <c r="G75" t="n">
-        <v>312.5333333333334</v>
+        <v>312.4666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3320,19 +3318,19 @@
         <v>316</v>
       </c>
       <c r="C76" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D76" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E76" t="n">
         <v>316</v>
       </c>
       <c r="F76" t="n">
-        <v>6.6842</v>
+        <v>46.5326</v>
       </c>
       <c r="G76" t="n">
-        <v>312.5833333333333</v>
+        <v>312.5333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3358,22 +3356,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C77" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D77" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E77" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F77" t="n">
-        <v>68.32510000000001</v>
+        <v>6.6842</v>
       </c>
       <c r="G77" t="n">
-        <v>312.65</v>
+        <v>312.5833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3411,10 +3409,10 @@
         <v>317</v>
       </c>
       <c r="F78" t="n">
-        <v>676.0318</v>
+        <v>68.32510000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>312.7333333333333</v>
+        <v>312.65</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3440,22 +3438,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C79" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D79" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E79" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F79" t="n">
-        <v>14853.5031</v>
+        <v>676.0318</v>
       </c>
       <c r="G79" t="n">
-        <v>312.8333333333333</v>
+        <v>312.7333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3493,10 +3491,10 @@
         <v>318</v>
       </c>
       <c r="F80" t="n">
-        <v>3034.6461</v>
+        <v>14853.5031</v>
       </c>
       <c r="G80" t="n">
-        <v>312.9333333333333</v>
+        <v>312.8333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3522,22 +3520,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C81" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D81" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E81" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F81" t="n">
-        <v>28600.8965</v>
+        <v>3034.6461</v>
       </c>
       <c r="G81" t="n">
-        <v>313.0666666666667</v>
+        <v>312.9333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3575,10 +3573,10 @@
         <v>319</v>
       </c>
       <c r="F82" t="n">
-        <v>535.8432</v>
+        <v>28600.8965</v>
       </c>
       <c r="G82" t="n">
-        <v>313.2</v>
+        <v>313.0666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3616,16 +3614,16 @@
         <v>319</v>
       </c>
       <c r="F83" t="n">
-        <v>4.4474</v>
+        <v>535.8432</v>
       </c>
       <c r="G83" t="n">
-        <v>313.3333333333333</v>
+        <v>313.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -3633,11 +3631,11 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>1.02072347266881</v>
       </c>
     </row>
     <row r="84">
@@ -3645,38 +3643,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C84" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D84" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E84" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F84" t="n">
-        <v>45.6562</v>
+        <v>4.4474</v>
       </c>
       <c r="G84" t="n">
-        <v>313.4666666666666</v>
+        <v>313.3333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>311</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3698,26 +3690,20 @@
         <v>318</v>
       </c>
       <c r="F85" t="n">
-        <v>1661.9538</v>
+        <v>45.6562</v>
       </c>
       <c r="G85" t="n">
-        <v>313.6166666666667</v>
+        <v>313.4666666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>311</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3727,38 +3713,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C86" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E86" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>1661.9538</v>
       </c>
       <c r="G86" t="n">
-        <v>313.7833333333334</v>
+        <v>313.6166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>311</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3768,38 +3748,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C87" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D87" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E87" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F87" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>313.9166666666667</v>
+        <v>313.7833333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>311</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3809,38 +3783,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C88" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D88" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E88" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F88" t="n">
-        <v>7.043887147335423</v>
+        <v>9</v>
       </c>
       <c r="G88" t="n">
-        <v>314.0833333333333</v>
+        <v>313.9166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>311</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3850,7 +3818,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C89" t="n">
         <v>319</v>
@@ -3859,13 +3827,13 @@
         <v>319</v>
       </c>
       <c r="E89" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F89" t="n">
-        <v>9539.402</v>
+        <v>7.043887147335423</v>
       </c>
       <c r="G89" t="n">
-        <v>314.25</v>
+        <v>314.0833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3874,14 +3842,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>311</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3891,38 +3853,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>317</v>
+      </c>
+      <c r="C90" t="n">
         <v>319</v>
       </c>
-      <c r="C90" t="n">
-        <v>320</v>
-      </c>
       <c r="D90" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E90" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F90" t="n">
-        <v>2970.2996</v>
+        <v>9539.402</v>
       </c>
       <c r="G90" t="n">
-        <v>314.4</v>
+        <v>314.25</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>311</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3935,19 +3891,19 @@
         <v>319</v>
       </c>
       <c r="C91" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D91" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E91" t="n">
         <v>319</v>
       </c>
       <c r="F91" t="n">
-        <v>76.5074</v>
+        <v>2970.2996</v>
       </c>
       <c r="G91" t="n">
-        <v>314.5333333333334</v>
+        <v>314.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3956,14 +3912,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>311</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3985,10 +3935,10 @@
         <v>319</v>
       </c>
       <c r="F92" t="n">
-        <v>108</v>
+        <v>76.5074</v>
       </c>
       <c r="G92" t="n">
-        <v>314.6666666666667</v>
+        <v>314.5333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3997,14 +3947,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>311</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +3958,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C93" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D93" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E93" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F93" t="n">
-        <v>3024.3484</v>
+        <v>108</v>
       </c>
       <c r="G93" t="n">
-        <v>314.8</v>
+        <v>314.6666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4038,14 +3982,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>311</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4055,22 +3993,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C94" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D94" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E94" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F94" t="n">
-        <v>16434.5316</v>
+        <v>3024.3484</v>
       </c>
       <c r="G94" t="n">
-        <v>314.9666666666666</v>
+        <v>314.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4079,14 +4017,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>311</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4108,10 +4040,10 @@
         <v>320</v>
       </c>
       <c r="F95" t="n">
-        <v>4809.4541</v>
+        <v>16434.5316</v>
       </c>
       <c r="G95" t="n">
-        <v>315.1333333333333</v>
+        <v>314.9666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4120,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>311</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4149,10 +4075,10 @@
         <v>320</v>
       </c>
       <c r="F96" t="n">
-        <v>2892.5703</v>
+        <v>4809.4541</v>
       </c>
       <c r="G96" t="n">
-        <v>315.3</v>
+        <v>315.1333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4161,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>311</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +4110,10 @@
         <v>320</v>
       </c>
       <c r="F97" t="n">
-        <v>16592.7156</v>
+        <v>2892.5703</v>
       </c>
       <c r="G97" t="n">
-        <v>315.4666666666666</v>
+        <v>315.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4202,14 +4122,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>311</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4231,10 +4145,10 @@
         <v>320</v>
       </c>
       <c r="F98" t="n">
-        <v>2451.7431</v>
+        <v>16592.7156</v>
       </c>
       <c r="G98" t="n">
-        <v>315.6166666666667</v>
+        <v>315.4666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4243,14 +4157,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>311</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4272,10 +4180,10 @@
         <v>320</v>
       </c>
       <c r="F99" t="n">
-        <v>1085.0986</v>
+        <v>2451.7431</v>
       </c>
       <c r="G99" t="n">
-        <v>315.7833333333334</v>
+        <v>315.6166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4284,14 +4192,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>311</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4307,16 +4209,16 @@
         <v>320</v>
       </c>
       <c r="D100" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100" t="n">
         <v>320</v>
       </c>
       <c r="F100" t="n">
-        <v>41773.2228</v>
+        <v>1085.0986</v>
       </c>
       <c r="G100" t="n">
-        <v>315.9333333333333</v>
+        <v>315.7833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4325,14 +4227,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>311</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4342,22 +4238,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C101" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D101" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E101" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F101" t="n">
-        <v>110.2317</v>
+        <v>41773.2228</v>
       </c>
       <c r="G101" t="n">
-        <v>316.0666666666667</v>
+        <v>315.9333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4366,14 +4262,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>311</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4383,22 +4273,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C102" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D102" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E102" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F102" t="n">
-        <v>805.4924999999999</v>
+        <v>110.2317</v>
       </c>
       <c r="G102" t="n">
-        <v>316.2</v>
+        <v>316.0666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4407,14 +4297,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>311</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4424,22 +4308,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C103" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D103" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E103" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F103" t="n">
-        <v>1765.8911</v>
+        <v>805.4924999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>316.35</v>
+        <v>316.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4448,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>311</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4468,19 +4346,19 @@
         <v>321</v>
       </c>
       <c r="C104" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D104" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E104" t="n">
         <v>321</v>
       </c>
       <c r="F104" t="n">
-        <v>2592.3455</v>
+        <v>1765.8911</v>
       </c>
       <c r="G104" t="n">
-        <v>316.5166666666667</v>
+        <v>316.35</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4489,14 +4367,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>311</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4506,7 +4378,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C105" t="n">
         <v>322</v>
@@ -4515,13 +4387,13 @@
         <v>322</v>
       </c>
       <c r="E105" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F105" t="n">
-        <v>478.8322</v>
+        <v>2592.3455</v>
       </c>
       <c r="G105" t="n">
-        <v>316.6666666666667</v>
+        <v>316.5166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4530,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>311</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4559,10 +4425,10 @@
         <v>322</v>
       </c>
       <c r="F106" t="n">
-        <v>746</v>
+        <v>478.8322</v>
       </c>
       <c r="G106" t="n">
-        <v>316.8166666666667</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4571,14 +4437,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>311</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4588,22 +4448,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C107" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D107" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E107" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F107" t="n">
-        <v>13512.9874</v>
+        <v>746</v>
       </c>
       <c r="G107" t="n">
-        <v>316.9833333333333</v>
+        <v>316.8166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4612,14 +4472,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>311</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4641,10 +4495,10 @@
         <v>323</v>
       </c>
       <c r="F108" t="n">
-        <v>1095.7509</v>
+        <v>13512.9874</v>
       </c>
       <c r="G108" t="n">
-        <v>317.1333333333333</v>
+        <v>316.9833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4653,14 +4507,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>311</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4682,10 +4530,10 @@
         <v>323</v>
       </c>
       <c r="F109" t="n">
-        <v>1298.0611</v>
+        <v>1095.7509</v>
       </c>
       <c r="G109" t="n">
-        <v>317.3166666666667</v>
+        <v>317.1333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4694,14 +4542,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>311</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4723,10 +4565,10 @@
         <v>323</v>
       </c>
       <c r="F110" t="n">
-        <v>15067.9758</v>
+        <v>1298.0611</v>
       </c>
       <c r="G110" t="n">
-        <v>317.4666666666666</v>
+        <v>317.3166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4735,14 +4577,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>311</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4752,22 +4588,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C111" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D111" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E111" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F111" t="n">
-        <v>5.4303</v>
+        <v>15067.9758</v>
       </c>
       <c r="G111" t="n">
-        <v>317.6166666666667</v>
+        <v>317.4666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4776,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>311</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4793,22 +4623,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C112" t="n">
         <v>324</v>
       </c>
       <c r="D112" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E112" t="n">
         <v>324</v>
       </c>
       <c r="F112" t="n">
-        <v>16297.1666</v>
+        <v>5.4303</v>
       </c>
       <c r="G112" t="n">
-        <v>317.8</v>
+        <v>317.6166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4817,14 +4647,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>311</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4834,22 +4658,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C113" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D113" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E113" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F113" t="n">
-        <v>169707.6877</v>
+        <v>16297.1666</v>
       </c>
       <c r="G113" t="n">
-        <v>318.0166666666667</v>
+        <v>317.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4858,14 +4682,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>311</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4881,16 +4699,16 @@
         <v>326</v>
       </c>
       <c r="D114" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E114" t="n">
         <v>326</v>
       </c>
       <c r="F114" t="n">
-        <v>10842.2254</v>
+        <v>169707.6877</v>
       </c>
       <c r="G114" t="n">
-        <v>318.2</v>
+        <v>318.0166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4899,14 +4717,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>311</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4928,10 +4740,10 @@
         <v>326</v>
       </c>
       <c r="F115" t="n">
-        <v>6182.6213</v>
+        <v>10842.2254</v>
       </c>
       <c r="G115" t="n">
-        <v>318.4</v>
+        <v>318.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4940,16 +4752,10 @@
         <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>311</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>1.043231511254019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4960,25 +4766,25 @@
         <v>326</v>
       </c>
       <c r="C116" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D116" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E116" t="n">
         <v>326</v>
       </c>
       <c r="F116" t="n">
-        <v>7226.7872</v>
+        <v>6182.6213</v>
       </c>
       <c r="G116" t="n">
-        <v>318.6166666666667</v>
+        <v>318.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4992,28 +4798,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>326</v>
+      </c>
+      <c r="C117" t="n">
         <v>327</v>
-      </c>
-      <c r="C117" t="n">
-        <v>324</v>
       </c>
       <c r="D117" t="n">
         <v>327</v>
       </c>
       <c r="E117" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F117" t="n">
-        <v>53567.5339</v>
+        <v>7226.7872</v>
       </c>
       <c r="G117" t="n">
-        <v>318.7833333333334</v>
+        <v>318.6166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5027,22 +4833,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C118" t="n">
         <v>324</v>
       </c>
       <c r="D118" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E118" t="n">
         <v>324</v>
       </c>
       <c r="F118" t="n">
-        <v>2001.6868</v>
+        <v>53567.5339</v>
       </c>
       <c r="G118" t="n">
-        <v>318.95</v>
+        <v>318.7833333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5065,19 +4871,19 @@
         <v>324</v>
       </c>
       <c r="C119" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E119" t="n">
         <v>324</v>
       </c>
       <c r="F119" t="n">
-        <v>3206.1932</v>
+        <v>2001.6868</v>
       </c>
       <c r="G119" t="n">
-        <v>319.1333333333333</v>
+        <v>318.95</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5097,22 +4903,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C120" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E120" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F120" t="n">
-        <v>13797.1279</v>
+        <v>3206.1932</v>
       </c>
       <c r="G120" t="n">
-        <v>319.3333333333333</v>
+        <v>319.1333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5132,22 +4938,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C121" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E121" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F121" t="n">
-        <v>15645.8676</v>
+        <v>13797.1279</v>
       </c>
       <c r="G121" t="n">
-        <v>319.5</v>
+        <v>319.3333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5167,22 +4973,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C122" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E122" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F122" t="n">
-        <v>599.2056</v>
+        <v>15645.8676</v>
       </c>
       <c r="G122" t="n">
-        <v>319.7</v>
+        <v>319.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5211,13 +5017,13 @@
         <v>326</v>
       </c>
       <c r="E123" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F123" t="n">
-        <v>206.6913</v>
+        <v>599.2056</v>
       </c>
       <c r="G123" t="n">
-        <v>319.9</v>
+        <v>319.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5249,10 +5055,10 @@
         <v>326</v>
       </c>
       <c r="F124" t="n">
-        <v>5794.532</v>
+        <v>206.6913</v>
       </c>
       <c r="G124" t="n">
-        <v>320.1</v>
+        <v>319.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5281,13 +5087,13 @@
         <v>326</v>
       </c>
       <c r="E125" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F125" t="n">
-        <v>4412.9028</v>
+        <v>5794.532</v>
       </c>
       <c r="G125" t="n">
-        <v>320.3</v>
+        <v>320.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5307,22 +5113,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C126" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D126" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E126" t="n">
         <v>324</v>
       </c>
       <c r="F126" t="n">
-        <v>6898.5639</v>
+        <v>4412.9028</v>
       </c>
       <c r="G126" t="n">
-        <v>320.4666666666666</v>
+        <v>320.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5342,22 +5148,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C127" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D127" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E127" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F127" t="n">
-        <v>103</v>
+        <v>6898.5639</v>
       </c>
       <c r="G127" t="n">
-        <v>320.6666666666667</v>
+        <v>320.4666666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5377,22 +5183,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C128" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D128" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E128" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F128" t="n">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G128" t="n">
-        <v>320.8333333333333</v>
+        <v>320.6666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5424,10 +5230,10 @@
         <v>325</v>
       </c>
       <c r="F129" t="n">
-        <v>2180.07</v>
+        <v>137</v>
       </c>
       <c r="G129" t="n">
-        <v>321</v>
+        <v>320.8333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5447,22 +5253,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C130" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D130" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E130" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F130" t="n">
-        <v>1600.8344</v>
+        <v>2180.07</v>
       </c>
       <c r="G130" t="n">
-        <v>321.15</v>
+        <v>321</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5494,10 +5300,10 @@
         <v>324</v>
       </c>
       <c r="F131" t="n">
-        <v>1231.2395</v>
+        <v>1600.8344</v>
       </c>
       <c r="G131" t="n">
-        <v>321.3</v>
+        <v>321.15</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5517,22 +5323,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C132" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D132" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E132" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F132" t="n">
-        <v>188.2016</v>
+        <v>1231.2395</v>
       </c>
       <c r="G132" t="n">
-        <v>321.4333333333333</v>
+        <v>321.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5552,22 +5358,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C133" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D133" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E133" t="n">
         <v>323</v>
       </c>
       <c r="F133" t="n">
-        <v>1539.0348</v>
+        <v>188.2016</v>
       </c>
       <c r="G133" t="n">
-        <v>321.5833333333333</v>
+        <v>321.4333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5596,13 +5402,13 @@
         <v>324</v>
       </c>
       <c r="E134" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F134" t="n">
-        <v>426.8908</v>
+        <v>1539.0348</v>
       </c>
       <c r="G134" t="n">
-        <v>321.7166666666666</v>
+        <v>321.5833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5634,10 +5440,10 @@
         <v>324</v>
       </c>
       <c r="F135" t="n">
-        <v>1724.4374</v>
+        <v>426.8908</v>
       </c>
       <c r="G135" t="n">
-        <v>321.8333333333333</v>
+        <v>321.7166666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5669,10 +5475,10 @@
         <v>324</v>
       </c>
       <c r="F136" t="n">
-        <v>3448.4683</v>
+        <v>1724.4374</v>
       </c>
       <c r="G136" t="n">
-        <v>321.9666666666666</v>
+        <v>321.8333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5704,10 +5510,10 @@
         <v>324</v>
       </c>
       <c r="F137" t="n">
-        <v>234.0908</v>
+        <v>3448.4683</v>
       </c>
       <c r="G137" t="n">
-        <v>322.0833333333333</v>
+        <v>321.9666666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5727,22 +5533,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C138" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D138" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E138" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F138" t="n">
-        <v>1051.6692</v>
+        <v>234.0908</v>
       </c>
       <c r="G138" t="n">
-        <v>322.1833333333333</v>
+        <v>322.0833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5774,10 +5580,10 @@
         <v>323</v>
       </c>
       <c r="F139" t="n">
-        <v>772</v>
+        <v>1051.6692</v>
       </c>
       <c r="G139" t="n">
-        <v>322.2666666666667</v>
+        <v>322.1833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5809,10 +5615,10 @@
         <v>323</v>
       </c>
       <c r="F140" t="n">
-        <v>503.6794</v>
+        <v>772</v>
       </c>
       <c r="G140" t="n">
-        <v>322.35</v>
+        <v>322.2666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5844,10 +5650,10 @@
         <v>323</v>
       </c>
       <c r="F141" t="n">
-        <v>3222.6439</v>
+        <v>503.6794</v>
       </c>
       <c r="G141" t="n">
-        <v>322.4166666666667</v>
+        <v>322.35</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5867,22 +5673,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C142" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D142" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E142" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F142" t="n">
-        <v>7456.9294</v>
+        <v>3222.6439</v>
       </c>
       <c r="G142" t="n">
-        <v>322.4666666666666</v>
+        <v>322.4166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5902,22 +5708,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C143" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D143" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E143" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F143" t="n">
-        <v>1833.3021</v>
+        <v>7456.9294</v>
       </c>
       <c r="G143" t="n">
-        <v>322.5333333333334</v>
+        <v>322.4666666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5949,10 +5755,10 @@
         <v>323</v>
       </c>
       <c r="F144" t="n">
-        <v>803.5144</v>
+        <v>1833.3021</v>
       </c>
       <c r="G144" t="n">
-        <v>322.6166666666667</v>
+        <v>322.5333333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5984,10 +5790,10 @@
         <v>323</v>
       </c>
       <c r="F145" t="n">
-        <v>2464.7037</v>
+        <v>803.5144</v>
       </c>
       <c r="G145" t="n">
-        <v>322.7</v>
+        <v>322.6166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6019,10 +5825,10 @@
         <v>323</v>
       </c>
       <c r="F146" t="n">
-        <v>3272.944</v>
+        <v>2464.7037</v>
       </c>
       <c r="G146" t="n">
-        <v>322.7666666666667</v>
+        <v>322.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6042,22 +5848,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D147" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E147" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F147" t="n">
-        <v>31278.2125</v>
+        <v>3272.944</v>
       </c>
       <c r="G147" t="n">
-        <v>322.85</v>
+        <v>322.7666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6077,22 +5883,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C148" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D148" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E148" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F148" t="n">
-        <v>3104.0604</v>
+        <v>31278.2125</v>
       </c>
       <c r="G148" t="n">
-        <v>322.9166666666667</v>
+        <v>322.85</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6112,22 +5918,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C149" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D149" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E149" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F149" t="n">
-        <v>960.7938</v>
+        <v>3104.0604</v>
       </c>
       <c r="G149" t="n">
-        <v>322.95</v>
+        <v>322.9166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6147,19 +5953,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C150" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D150" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E150" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F150" t="n">
-        <v>1107.9312</v>
+        <v>960.7938</v>
       </c>
       <c r="G150" t="n">
         <v>322.95</v>
@@ -6194,10 +6000,10 @@
         <v>320</v>
       </c>
       <c r="F151" t="n">
-        <v>785.3679</v>
+        <v>1107.9312</v>
       </c>
       <c r="G151" t="n">
-        <v>322.9666666666666</v>
+        <v>322.95</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6229,10 +6035,10 @@
         <v>320</v>
       </c>
       <c r="F152" t="n">
-        <v>43.2225</v>
+        <v>785.3679</v>
       </c>
       <c r="G152" t="n">
-        <v>322.9833333333333</v>
+        <v>322.9666666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6252,22 +6058,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C153" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D153" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E153" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F153" t="n">
-        <v>96.53700000000001</v>
+        <v>43.2225</v>
       </c>
       <c r="G153" t="n">
-        <v>323.0333333333334</v>
+        <v>322.9833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6287,19 +6093,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C154" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D154" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E154" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F154" t="n">
-        <v>9.7281</v>
+        <v>96.53700000000001</v>
       </c>
       <c r="G154" t="n">
         <v>323.0333333333334</v>
@@ -6334,7 +6140,7 @@
         <v>320</v>
       </c>
       <c r="F155" t="n">
-        <v>978.9577</v>
+        <v>9.7281</v>
       </c>
       <c r="G155" t="n">
         <v>323.0333333333334</v>
@@ -6357,22 +6163,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C156" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D156" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E156" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F156" t="n">
-        <v>2592.236</v>
+        <v>978.9577</v>
       </c>
       <c r="G156" t="n">
-        <v>323.0166666666667</v>
+        <v>323.0333333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6392,7 +6198,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C157" t="n">
         <v>319</v>
@@ -6401,13 +6207,13 @@
         <v>319</v>
       </c>
       <c r="E157" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F157" t="n">
-        <v>10842.3861</v>
+        <v>2592.236</v>
       </c>
       <c r="G157" t="n">
-        <v>323</v>
+        <v>323.0166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6427,22 +6233,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C158" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D158" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E158" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F158" t="n">
-        <v>3319.82</v>
+        <v>10842.3861</v>
       </c>
       <c r="G158" t="n">
-        <v>322.95</v>
+        <v>323</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6474,10 +6280,10 @@
         <v>317</v>
       </c>
       <c r="F159" t="n">
-        <v>73.44750000000001</v>
+        <v>3319.82</v>
       </c>
       <c r="G159" t="n">
-        <v>322.9</v>
+        <v>322.95</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6509,10 +6315,10 @@
         <v>317</v>
       </c>
       <c r="F160" t="n">
-        <v>13.0195</v>
+        <v>73.44750000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>322.85</v>
+        <v>322.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6532,22 +6338,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D161" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E161" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F161" t="n">
-        <v>4862.5062</v>
+        <v>13.0195</v>
       </c>
       <c r="G161" t="n">
-        <v>322.8</v>
+        <v>322.85</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6567,22 +6373,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C162" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D162" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E162" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F162" t="n">
-        <v>102.4819</v>
+        <v>4862.5062</v>
       </c>
       <c r="G162" t="n">
-        <v>322.75</v>
+        <v>322.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6602,22 +6408,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C163" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D163" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E163" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F163" t="n">
-        <v>208.5902</v>
+        <v>102.4819</v>
       </c>
       <c r="G163" t="n">
-        <v>322.6666666666667</v>
+        <v>322.75</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6637,22 +6443,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C164" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D164" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E164" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F164" t="n">
-        <v>3666.4477</v>
+        <v>208.5902</v>
       </c>
       <c r="G164" t="n">
-        <v>322.55</v>
+        <v>322.6666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6672,22 +6478,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C165" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D165" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E165" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="n">
-        <v>29.8927</v>
+        <v>3666.4477</v>
       </c>
       <c r="G165" t="n">
-        <v>322.4666666666666</v>
+        <v>322.55</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6707,22 +6513,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C166" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D166" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E166" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F166" t="n">
-        <v>3042.3621</v>
+        <v>29.8927</v>
       </c>
       <c r="G166" t="n">
-        <v>322.35</v>
+        <v>322.4666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6754,10 +6560,10 @@
         <v>315</v>
       </c>
       <c r="F167" t="n">
-        <v>1032.6187</v>
+        <v>3042.3621</v>
       </c>
       <c r="G167" t="n">
-        <v>322.2166666666666</v>
+        <v>322.35</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6789,10 +6595,10 @@
         <v>315</v>
       </c>
       <c r="F168" t="n">
-        <v>2832.0185</v>
+        <v>1032.6187</v>
       </c>
       <c r="G168" t="n">
-        <v>322.0833333333333</v>
+        <v>322.2166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6812,22 +6618,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C169" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D169" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E169" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F169" t="n">
-        <v>33.7906</v>
+        <v>2832.0185</v>
       </c>
       <c r="G169" t="n">
-        <v>321.9333333333333</v>
+        <v>322.0833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6847,22 +6653,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C170" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D170" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E170" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F170" t="n">
-        <v>2049.3984</v>
+        <v>33.7906</v>
       </c>
       <c r="G170" t="n">
-        <v>321.7666666666667</v>
+        <v>321.9333333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6894,10 +6700,10 @@
         <v>313</v>
       </c>
       <c r="F171" t="n">
-        <v>10005.8863</v>
+        <v>2049.3984</v>
       </c>
       <c r="G171" t="n">
-        <v>321.5833333333333</v>
+        <v>321.7666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6917,22 +6723,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C172" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D172" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E172" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F172" t="n">
-        <v>176.6543</v>
+        <v>10005.8863</v>
       </c>
       <c r="G172" t="n">
-        <v>321.4833333333333</v>
+        <v>321.5833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6952,22 +6758,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C173" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D173" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E173" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F173" t="n">
-        <v>31432.2594</v>
+        <v>176.6543</v>
       </c>
       <c r="G173" t="n">
-        <v>321.3666666666667</v>
+        <v>321.4833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6987,22 +6793,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C174" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D174" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E174" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F174" t="n">
-        <v>93.128</v>
+        <v>31432.2594</v>
       </c>
       <c r="G174" t="n">
-        <v>321.2666666666667</v>
+        <v>321.3666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7034,10 +6840,10 @@
         <v>320</v>
       </c>
       <c r="F175" t="n">
-        <v>16.9803</v>
+        <v>93.128</v>
       </c>
       <c r="G175" t="n">
-        <v>321.1666666666667</v>
+        <v>321.2666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7060,19 +6866,19 @@
         <v>320</v>
       </c>
       <c r="C176" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D176" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E176" t="n">
         <v>320</v>
       </c>
       <c r="F176" t="n">
-        <v>197.0958</v>
+        <v>16.9803</v>
       </c>
       <c r="G176" t="n">
-        <v>321.0666666666667</v>
+        <v>321.1666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7092,7 +6898,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C177" t="n">
         <v>321</v>
@@ -7101,13 +6907,13 @@
         <v>321</v>
       </c>
       <c r="E177" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F177" t="n">
-        <v>3.2538</v>
+        <v>197.0958</v>
       </c>
       <c r="G177" t="n">
-        <v>321.0166666666667</v>
+        <v>321.0666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7139,10 +6945,10 @@
         <v>321</v>
       </c>
       <c r="F178" t="n">
-        <v>100</v>
+        <v>3.2538</v>
       </c>
       <c r="G178" t="n">
-        <v>320.9666666666666</v>
+        <v>321.0166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7165,19 +6971,19 @@
         <v>321</v>
       </c>
       <c r="C179" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D179" t="n">
         <v>321</v>
       </c>
       <c r="E179" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F179" t="n">
-        <v>6606.567694392524</v>
+        <v>100</v>
       </c>
       <c r="G179" t="n">
-        <v>320.8</v>
+        <v>320.9666666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7197,22 +7003,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C180" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D180" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E180" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F180" t="n">
-        <v>786</v>
+        <v>6606.567694392524</v>
       </c>
       <c r="G180" t="n">
-        <v>320.6833333333333</v>
+        <v>320.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7232,22 +7038,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C181" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D181" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E181" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F181" t="n">
-        <v>2.0656</v>
+        <v>786</v>
       </c>
       <c r="G181" t="n">
-        <v>320.6166666666667</v>
+        <v>320.6833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7267,22 +7073,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C182" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D182" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E182" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>2.0656</v>
       </c>
       <c r="G182" t="n">
-        <v>320.5</v>
+        <v>320.6166666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7302,22 +7108,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C183" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D183" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E183" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F183" t="n">
-        <v>2.2626</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>320.4</v>
+        <v>320.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7349,10 +7155,10 @@
         <v>320</v>
       </c>
       <c r="F184" t="n">
-        <v>30.9866</v>
+        <v>2.2626</v>
       </c>
       <c r="G184" t="n">
-        <v>320.3</v>
+        <v>320.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7384,10 +7190,10 @@
         <v>320</v>
       </c>
       <c r="F185" t="n">
-        <v>97</v>
+        <v>30.9866</v>
       </c>
       <c r="G185" t="n">
-        <v>320.2</v>
+        <v>320.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7419,10 +7225,10 @@
         <v>320</v>
       </c>
       <c r="F186" t="n">
-        <v>439.7774</v>
+        <v>97</v>
       </c>
       <c r="G186" t="n">
-        <v>320.1333333333333</v>
+        <v>320.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7442,22 +7248,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C187" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D187" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E187" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F187" t="n">
-        <v>313.2462</v>
+        <v>439.7774</v>
       </c>
       <c r="G187" t="n">
-        <v>320.0166666666667</v>
+        <v>320.1333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7477,22 +7283,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C188" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D188" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E188" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F188" t="n">
-        <v>1453.3568</v>
+        <v>313.2462</v>
       </c>
       <c r="G188" t="n">
-        <v>319.95</v>
+        <v>320.0166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7507,6 +7313,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>321</v>
+      </c>
+      <c r="C189" t="n">
+        <v>321</v>
+      </c>
+      <c r="D189" t="n">
+        <v>321</v>
+      </c>
+      <c r="E189" t="n">
+        <v>321</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1453.3568</v>
+      </c>
+      <c r="G189" t="n">
+        <v>319.95</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>315.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>319.2333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>315.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>319.05</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6201</v>
       </c>
       <c r="G4" t="n">
+        <v>315.8666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>318.8166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>13849.8853</v>
       </c>
       <c r="G5" t="n">
+        <v>315.7333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>318.55</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1034</v>
       </c>
       <c r="G6" t="n">
+        <v>315.6666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>318.3333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5621.9273</v>
       </c>
       <c r="G7" t="n">
+        <v>315.5333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>318.15</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1090.8198</v>
       </c>
       <c r="G8" t="n">
+        <v>315.5333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>317.9666666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>105</v>
       </c>
       <c r="G9" t="n">
+        <v>315.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>317.7</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1483</v>
       </c>
       <c r="G10" t="n">
+        <v>315.1333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>317.45</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>4073.5185</v>
       </c>
       <c r="G11" t="n">
+        <v>314.9333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>317.25</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>6291.4224</v>
       </c>
       <c r="G12" t="n">
+        <v>314.7333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>317.0333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>12.0019</v>
       </c>
       <c r="G13" t="n">
+        <v>314.6666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>316.8</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>520.67</v>
       </c>
       <c r="G14" t="n">
+        <v>314.5333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>316.5666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1118</v>
       </c>
       <c r="G15" t="n">
+        <v>314.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>316.4666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>133.2564</v>
       </c>
       <c r="G16" t="n">
+        <v>314.3333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>316.35</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7969.5844</v>
       </c>
       <c r="G17" t="n">
+        <v>314.1333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>316.2166666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>318.4892</v>
       </c>
       <c r="G18" t="n">
+        <v>313.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>316.0833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>946</v>
       </c>
       <c r="G19" t="n">
+        <v>313.7333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>315.95</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1892</v>
       </c>
       <c r="G20" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>315.85</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>477.9999</v>
       </c>
       <c r="G21" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>315.75</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3584.0404</v>
       </c>
       <c r="G22" t="n">
+        <v>313.2</v>
+      </c>
+      <c r="H22" t="n">
         <v>315.6333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>870.4939000000001</v>
       </c>
       <c r="G23" t="n">
+        <v>312.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>315.5166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1569.948</v>
       </c>
       <c r="G24" t="n">
+        <v>312.6666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>315.4166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>540</v>
       </c>
       <c r="G25" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>315.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1266.5386</v>
       </c>
       <c r="G26" t="n">
+        <v>312.0666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>315.1666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1936.6242</v>
       </c>
       <c r="G27" t="n">
+        <v>311.7333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>315.0333333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>306.8705</v>
       </c>
       <c r="G28" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="H28" t="n">
         <v>314.9166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>359.6816</v>
       </c>
       <c r="G29" t="n">
+        <v>311.1333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>314.7833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,22 +1517,25 @@
         <v>3866.0864</v>
       </c>
       <c r="G30" t="n">
+        <v>310.8666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>314.65</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>309</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>309</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1467,26 +1559,29 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
+        <v>310.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>314.55</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>309</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="n">
+        <v>309</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,26 +1605,29 @@
         <v>1465.362</v>
       </c>
       <c r="G32" t="n">
+        <v>310.6</v>
+      </c>
+      <c r="H32" t="n">
         <v>314.4333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>311</v>
+      </c>
+      <c r="L32" t="n">
         <v>309</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1651,25 @@
         <v>1392.094</v>
       </c>
       <c r="G33" t="n">
+        <v>310.4666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>314.3666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>311</v>
+      </c>
+      <c r="L33" t="n">
+        <v>311</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,22 +1693,29 @@
         <v>1256.7342</v>
       </c>
       <c r="G34" t="n">
+        <v>310.3333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>314.2833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>311</v>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>311</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1627,26 +1739,29 @@
         <v>174.3081</v>
       </c>
       <c r="G35" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>314.15</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>310</v>
       </c>
-      <c r="K35" t="n">
-        <v>311</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>311</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,26 +1785,29 @@
         <v>754.8457</v>
       </c>
       <c r="G36" t="n">
+        <v>310.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>314.0166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>310</v>
       </c>
-      <c r="K36" t="n">
-        <v>311</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>311</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1713,26 +1831,29 @@
         <v>615.7406999999999</v>
       </c>
       <c r="G37" t="n">
+        <v>310</v>
+      </c>
+      <c r="H37" t="n">
         <v>313.8833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>310</v>
       </c>
-      <c r="K37" t="n">
-        <v>311</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>311</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,26 +1877,29 @@
         <v>318.4118</v>
       </c>
       <c r="G38" t="n">
+        <v>309.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>313.75</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>310</v>
       </c>
-      <c r="K38" t="n">
-        <v>311</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>311</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1799,26 +1923,29 @@
         <v>189</v>
       </c>
       <c r="G39" t="n">
+        <v>309.9333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>313.6333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>310</v>
       </c>
-      <c r="K39" t="n">
-        <v>311</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>311</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,26 +1969,29 @@
         <v>3637.7817</v>
       </c>
       <c r="G40" t="n">
+        <v>309.9333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>313.4833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>311</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>311</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,26 +2015,29 @@
         <v>8.9627</v>
       </c>
       <c r="G41" t="n">
+        <v>310.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>313.35</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>310</v>
       </c>
-      <c r="K41" t="n">
-        <v>311</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>311</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,26 +2061,29 @@
         <v>4.4939</v>
       </c>
       <c r="G42" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="H42" t="n">
         <v>313.25</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>311</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="n">
+        <v>311</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,26 +2107,29 @@
         <v>668.9232</v>
       </c>
       <c r="G43" t="n">
+        <v>310.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>313.1666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>311</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="n">
+        <v>311</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,26 +2153,29 @@
         <v>1666.425</v>
       </c>
       <c r="G44" t="n">
+        <v>310.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>313.0833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>312</v>
       </c>
-      <c r="K44" t="n">
-        <v>311</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>311</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2057,24 +2199,29 @@
         <v>554.7087</v>
       </c>
       <c r="G45" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="H45" t="n">
         <v>313.0333333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>311</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>312</v>
+      </c>
+      <c r="L45" t="n">
+        <v>311</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,26 +2245,29 @@
         <v>379</v>
       </c>
       <c r="G46" t="n">
+        <v>310.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>312.9833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>312</v>
       </c>
-      <c r="K46" t="n">
-        <v>311</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>311</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2141,24 +2291,29 @@
         <v>1930</v>
       </c>
       <c r="G47" t="n">
+        <v>311.0666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>312.9333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>311</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>313</v>
+      </c>
+      <c r="L47" t="n">
+        <v>311</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,24 +2337,29 @@
         <v>1930</v>
       </c>
       <c r="G48" t="n">
+        <v>311.2</v>
+      </c>
+      <c r="H48" t="n">
         <v>312.8833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
-        <v>311</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>313</v>
+      </c>
+      <c r="L48" t="n">
+        <v>311</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2223,24 +2383,29 @@
         <v>102.7354</v>
       </c>
       <c r="G49" t="n">
+        <v>311.4666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>312.85</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
-        <v>311</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>313</v>
+      </c>
+      <c r="L49" t="n">
+        <v>311</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,24 +2429,29 @@
         <v>204.9531</v>
       </c>
       <c r="G50" t="n">
+        <v>311.6</v>
+      </c>
+      <c r="H50" t="n">
         <v>312.7833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
-        <v>311</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>314</v>
+      </c>
+      <c r="L50" t="n">
+        <v>311</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2305,24 +2475,29 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
+        <v>311.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>312.75</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
-        <v>311</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>312</v>
+      </c>
+      <c r="L51" t="n">
+        <v>311</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,24 +2521,29 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>312.7333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>311</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>314</v>
+      </c>
+      <c r="L52" t="n">
+        <v>311</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2387,24 +2567,29 @@
         <v>56.5759</v>
       </c>
       <c r="G53" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="H53" t="n">
         <v>312.6833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
-        <v>311</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>315</v>
+      </c>
+      <c r="L53" t="n">
+        <v>311</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,24 +2613,29 @@
         <v>5622.4636</v>
       </c>
       <c r="G54" t="n">
+        <v>312.5333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>312.6166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>311</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>313</v>
+      </c>
+      <c r="L54" t="n">
+        <v>311</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2469,24 +2659,29 @@
         <v>512.1319</v>
       </c>
       <c r="G55" t="n">
+        <v>312.8666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>312.5833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>311</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>313</v>
+      </c>
+      <c r="L55" t="n">
+        <v>311</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,24 +2705,29 @@
         <v>1527.0773</v>
       </c>
       <c r="G56" t="n">
+        <v>313.0666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>312.5333333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>311</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>315</v>
+      </c>
+      <c r="L56" t="n">
+        <v>311</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,24 +2751,27 @@
         <v>7400</v>
       </c>
       <c r="G57" t="n">
+        <v>313.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>312.4833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>311</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>311</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,24 +2795,29 @@
         <v>453.136</v>
       </c>
       <c r="G58" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="H58" t="n">
         <v>312.4666666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
-        <v>311</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>314</v>
+      </c>
+      <c r="L58" t="n">
+        <v>311</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,24 +2841,27 @@
         <v>693</v>
       </c>
       <c r="G59" t="n">
+        <v>313.5333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>312.45</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>311</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>311</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,24 +2885,29 @@
         <v>114</v>
       </c>
       <c r="G60" t="n">
+        <v>313.6666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>312.4333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
-        <v>311</v>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>314</v>
+      </c>
+      <c r="L60" t="n">
+        <v>311</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2715,24 +2931,27 @@
         <v>480</v>
       </c>
       <c r="G61" t="n">
+        <v>313.7333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>312.4333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>311</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>311</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,24 +2975,27 @@
         <v>2215.23</v>
       </c>
       <c r="G62" t="n">
+        <v>313.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>312.4</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>311</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>311</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2797,24 +3019,27 @@
         <v>290</v>
       </c>
       <c r="G63" t="n">
+        <v>313.8666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>312.3666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>311</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>311</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,24 +3063,27 @@
         <v>1561.6335</v>
       </c>
       <c r="G64" t="n">
+        <v>313.8666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>312.35</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>311</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>311</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,24 +3107,27 @@
         <v>946</v>
       </c>
       <c r="G65" t="n">
+        <v>314</v>
+      </c>
+      <c r="H65" t="n">
         <v>312.35</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>311</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>311</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,24 +3151,27 @@
         <v>843.4832</v>
       </c>
       <c r="G66" t="n">
+        <v>314</v>
+      </c>
+      <c r="H66" t="n">
         <v>312.3333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>311</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>311</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,24 +3195,29 @@
         <v>2061.6291</v>
       </c>
       <c r="G67" t="n">
+        <v>313.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>312.3333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="n">
-        <v>311</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>314</v>
+      </c>
+      <c r="L67" t="n">
+        <v>311</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,24 +3241,29 @@
         <v>127.0566</v>
       </c>
       <c r="G68" t="n">
+        <v>314</v>
+      </c>
+      <c r="H68" t="n">
         <v>312.3</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="n">
-        <v>311</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>314</v>
+      </c>
+      <c r="L68" t="n">
+        <v>311</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,24 +3287,27 @@
         <v>275.8998</v>
       </c>
       <c r="G69" t="n">
+        <v>314.1333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>312.3166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>311</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>311</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,24 +3331,27 @@
         <v>303.8222</v>
       </c>
       <c r="G70" t="n">
+        <v>314.1333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>312.3333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>311</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>311</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,24 +3375,27 @@
         <v>99.9999</v>
       </c>
       <c r="G71" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="H71" t="n">
         <v>312.35</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>311</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>311</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,24 +3419,27 @@
         <v>64.56950000000001</v>
       </c>
       <c r="G72" t="n">
+        <v>314.2666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>312.3666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>311</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>311</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,24 +3463,29 @@
         <v>1.8613</v>
       </c>
       <c r="G73" t="n">
+        <v>314.3333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>312.3833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
-        <v>311</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>315</v>
+      </c>
+      <c r="L73" t="n">
+        <v>311</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,24 +3509,29 @@
         <v>3004.3161</v>
       </c>
       <c r="G74" t="n">
+        <v>314.4</v>
+      </c>
+      <c r="H74" t="n">
         <v>312.4166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
-        <v>311</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>315</v>
+      </c>
+      <c r="L74" t="n">
+        <v>311</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,24 +3555,29 @@
         <v>9</v>
       </c>
       <c r="G75" t="n">
+        <v>314.5333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>312.4666666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>311</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>315</v>
+      </c>
+      <c r="L75" t="n">
+        <v>311</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,24 +3601,27 @@
         <v>46.5326</v>
       </c>
       <c r="G76" t="n">
+        <v>314.7333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>312.5333333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>311</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>311</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,24 +3645,27 @@
         <v>6.6842</v>
       </c>
       <c r="G77" t="n">
+        <v>314.8666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>312.5833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>311</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>311</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,24 +3689,27 @@
         <v>68.32510000000001</v>
       </c>
       <c r="G78" t="n">
+        <v>315.0666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>312.65</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>311</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>311</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,24 +3733,27 @@
         <v>676.0318</v>
       </c>
       <c r="G79" t="n">
+        <v>315.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>312.7333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>311</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>311</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,24 +3777,27 @@
         <v>14853.5031</v>
       </c>
       <c r="G80" t="n">
+        <v>315.5333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>312.8333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>311</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>311</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,24 +3821,27 @@
         <v>3034.6461</v>
       </c>
       <c r="G81" t="n">
+        <v>315.8</v>
+      </c>
+      <c r="H81" t="n">
         <v>312.9333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>311</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>311</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,24 +3865,27 @@
         <v>28600.8965</v>
       </c>
       <c r="G82" t="n">
+        <v>316.1333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>313.0666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>311</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>311</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,25 +3909,28 @@
         <v>535.8432</v>
       </c>
       <c r="G83" t="n">
+        <v>316.4666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>313.2</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>311</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1.02072347266881</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>311</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3658,18 +3953,27 @@
         <v>4.4474</v>
       </c>
       <c r="G84" t="n">
+        <v>316.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>313.3333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>311</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3693,18 +3997,27 @@
         <v>45.6562</v>
       </c>
       <c r="G85" t="n">
+        <v>316.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>313.4666666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>311</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,18 +4041,27 @@
         <v>1661.9538</v>
       </c>
       <c r="G86" t="n">
+        <v>317.1333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>313.6166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>311</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,18 +4085,27 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>313.7833333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>311</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,18 +4129,27 @@
         <v>9</v>
       </c>
       <c r="G88" t="n">
+        <v>317.5333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>313.9166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>311</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,18 +4173,27 @@
         <v>7.043887147335423</v>
       </c>
       <c r="G89" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>314.0833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>311</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,18 +4217,27 @@
         <v>9539.402</v>
       </c>
       <c r="G90" t="n">
+        <v>318</v>
+      </c>
+      <c r="H90" t="n">
         <v>314.25</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>311</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3903,18 +4261,27 @@
         <v>2970.2996</v>
       </c>
       <c r="G91" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="H91" t="n">
         <v>314.4</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>311</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,18 +4305,27 @@
         <v>76.5074</v>
       </c>
       <c r="G92" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="H92" t="n">
         <v>314.5333333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>311</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3973,18 +4349,27 @@
         <v>108</v>
       </c>
       <c r="G93" t="n">
+        <v>318.5333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>314.6666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>311</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,18 +4393,27 @@
         <v>3024.3484</v>
       </c>
       <c r="G94" t="n">
+        <v>318.6</v>
+      </c>
+      <c r="H94" t="n">
         <v>314.8</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>311</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4043,18 +4437,27 @@
         <v>16434.5316</v>
       </c>
       <c r="G95" t="n">
+        <v>318.7333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>314.9666666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>311</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,18 +4481,27 @@
         <v>4809.4541</v>
       </c>
       <c r="G96" t="n">
+        <v>318.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>315.1333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>311</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4113,18 +4525,27 @@
         <v>2892.5703</v>
       </c>
       <c r="G97" t="n">
+        <v>318.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>315.3</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>311</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,18 +4569,27 @@
         <v>16592.7156</v>
       </c>
       <c r="G98" t="n">
+        <v>319</v>
+      </c>
+      <c r="H98" t="n">
         <v>315.4666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>311</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,18 +4613,27 @@
         <v>2451.7431</v>
       </c>
       <c r="G99" t="n">
+        <v>319.0666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>315.6166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>311</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,18 +4657,27 @@
         <v>1085.0986</v>
       </c>
       <c r="G100" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="H100" t="n">
         <v>315.7833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>311</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4253,18 +4701,27 @@
         <v>41773.2228</v>
       </c>
       <c r="G101" t="n">
+        <v>319.3333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>315.9333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>311</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,18 +4745,27 @@
         <v>110.2317</v>
       </c>
       <c r="G102" t="n">
+        <v>319.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>316.0666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>311</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,18 +4789,27 @@
         <v>805.4924999999999</v>
       </c>
       <c r="G103" t="n">
+        <v>319.5333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>316.2</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>311</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4358,18 +4833,27 @@
         <v>1765.8911</v>
       </c>
       <c r="G104" t="n">
+        <v>319.6666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>316.35</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>311</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4393,18 +4877,27 @@
         <v>2592.3455</v>
       </c>
       <c r="G105" t="n">
+        <v>319.8666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>316.5166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>311</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,18 +4921,27 @@
         <v>478.8322</v>
       </c>
       <c r="G106" t="n">
+        <v>320</v>
+      </c>
+      <c r="H106" t="n">
         <v>316.6666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>311</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4463,18 +4965,27 @@
         <v>746</v>
       </c>
       <c r="G107" t="n">
+        <v>320.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>316.8166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>311</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,18 +5009,27 @@
         <v>13512.9874</v>
       </c>
       <c r="G108" t="n">
+        <v>320.4666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>316.9833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>311</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4533,18 +5053,27 @@
         <v>1095.7509</v>
       </c>
       <c r="G109" t="n">
+        <v>320.8</v>
+      </c>
+      <c r="H109" t="n">
         <v>317.1333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>311</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,18 +5097,27 @@
         <v>1298.0611</v>
       </c>
       <c r="G110" t="n">
+        <v>321</v>
+      </c>
+      <c r="H110" t="n">
         <v>317.3166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>311</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4603,18 +5141,27 @@
         <v>15067.9758</v>
       </c>
       <c r="G111" t="n">
+        <v>321.2</v>
+      </c>
+      <c r="H111" t="n">
         <v>317.4666666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>311</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,18 +5185,27 @@
         <v>5.4303</v>
       </c>
       <c r="G112" t="n">
+        <v>321.4666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>317.6166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>311</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,18 +5229,27 @@
         <v>16297.1666</v>
       </c>
       <c r="G113" t="n">
+        <v>321.7333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>317.8</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>311</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,18 +5273,27 @@
         <v>169707.6877</v>
       </c>
       <c r="G114" t="n">
+        <v>322.1333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>318.0166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>311</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,19 +5317,28 @@
         <v>10842.2254</v>
       </c>
       <c r="G115" t="n">
+        <v>322.5333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>318.2</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
+      <c r="L115" t="n">
+        <v>311</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1.043231511254019</v>
       </c>
     </row>
     <row r="116">
@@ -4778,18 +5361,21 @@
         <v>6182.6213</v>
       </c>
       <c r="G116" t="n">
+        <v>322.9333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>318.4</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,18 +5399,21 @@
         <v>7226.7872</v>
       </c>
       <c r="G117" t="n">
+        <v>323.4666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>318.6166666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,18 +5437,21 @@
         <v>53567.5339</v>
       </c>
       <c r="G118" t="n">
+        <v>323.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>318.7833333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,18 +5475,21 @@
         <v>2001.6868</v>
       </c>
       <c r="G119" t="n">
+        <v>323.9333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>318.95</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,18 +5513,21 @@
         <v>3206.1932</v>
       </c>
       <c r="G120" t="n">
+        <v>324.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>319.1333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4953,18 +5551,21 @@
         <v>13797.1279</v>
       </c>
       <c r="G121" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="H121" t="n">
         <v>319.3333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,18 +5589,21 @@
         <v>15645.8676</v>
       </c>
       <c r="G122" t="n">
+        <v>324.5333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>319.5</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5023,18 +5627,21 @@
         <v>599.2056</v>
       </c>
       <c r="G123" t="n">
+        <v>324.7333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>319.7</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,18 +5665,21 @@
         <v>206.6913</v>
       </c>
       <c r="G124" t="n">
+        <v>324.9333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>319.9</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5093,18 +5703,21 @@
         <v>5794.532</v>
       </c>
       <c r="G125" t="n">
+        <v>325.1333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>320.1</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,18 +5741,21 @@
         <v>4412.9028</v>
       </c>
       <c r="G126" t="n">
+        <v>325.3333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>320.3</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5163,18 +5779,21 @@
         <v>6898.5639</v>
       </c>
       <c r="G127" t="n">
+        <v>325.3333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>320.4666666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,18 +5817,21 @@
         <v>103</v>
       </c>
       <c r="G128" t="n">
+        <v>325.4666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>320.6666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,18 +5855,21 @@
         <v>137</v>
       </c>
       <c r="G129" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="H129" t="n">
         <v>320.8333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,18 +5893,21 @@
         <v>2180.07</v>
       </c>
       <c r="G130" t="n">
+        <v>325.3333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>321</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5303,18 +5931,21 @@
         <v>1600.8344</v>
       </c>
       <c r="G131" t="n">
+        <v>325.2</v>
+      </c>
+      <c r="H131" t="n">
         <v>321.15</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,18 +5969,21 @@
         <v>1231.2395</v>
       </c>
       <c r="G132" t="n">
+        <v>325</v>
+      </c>
+      <c r="H132" t="n">
         <v>321.3</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5373,18 +6007,21 @@
         <v>188.2016</v>
       </c>
       <c r="G133" t="n">
+        <v>324.9333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>321.4333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,18 +6045,21 @@
         <v>1539.0348</v>
       </c>
       <c r="G134" t="n">
+        <v>324.9333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>321.5833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,18 +6083,21 @@
         <v>426.8908</v>
       </c>
       <c r="G135" t="n">
+        <v>324.8666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>321.7166666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5478,18 +6121,21 @@
         <v>1724.4374</v>
       </c>
       <c r="G136" t="n">
+        <v>324.7333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>321.8333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5513,18 +6159,21 @@
         <v>3448.4683</v>
       </c>
       <c r="G137" t="n">
+        <v>324.7333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>321.9666666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,18 +6197,21 @@
         <v>234.0908</v>
       </c>
       <c r="G138" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="H138" t="n">
         <v>322.0833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5583,18 +6235,21 @@
         <v>1051.6692</v>
       </c>
       <c r="G139" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="H139" t="n">
         <v>322.1833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5618,18 +6273,21 @@
         <v>772</v>
       </c>
       <c r="G140" t="n">
+        <v>324.2</v>
+      </c>
+      <c r="H140" t="n">
         <v>322.2666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5653,18 +6311,21 @@
         <v>503.6794</v>
       </c>
       <c r="G141" t="n">
+        <v>324</v>
+      </c>
+      <c r="H141" t="n">
         <v>322.35</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,18 +6349,21 @@
         <v>3222.6439</v>
       </c>
       <c r="G142" t="n">
+        <v>323.9333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>322.4166666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5723,18 +6387,21 @@
         <v>7456.9294</v>
       </c>
       <c r="G143" t="n">
+        <v>323.6666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>322.4666666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,18 +6425,21 @@
         <v>1833.3021</v>
       </c>
       <c r="G144" t="n">
+        <v>323.5333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>322.5333333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5793,18 +6463,21 @@
         <v>803.5144</v>
       </c>
       <c r="G145" t="n">
+        <v>323.4</v>
+      </c>
+      <c r="H145" t="n">
         <v>322.6166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5828,18 +6501,21 @@
         <v>2464.7037</v>
       </c>
       <c r="G146" t="n">
+        <v>323.3333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>322.7</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5863,18 +6539,21 @@
         <v>3272.944</v>
       </c>
       <c r="G147" t="n">
+        <v>323.2666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>322.7666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,18 +6577,21 @@
         <v>31278.2125</v>
       </c>
       <c r="G148" t="n">
+        <v>323.2</v>
+      </c>
+      <c r="H148" t="n">
         <v>322.85</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5933,18 +6615,21 @@
         <v>3104.0604</v>
       </c>
       <c r="G149" t="n">
+        <v>323.1333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>322.9166666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5968,18 +6653,21 @@
         <v>960.7938</v>
       </c>
       <c r="G150" t="n">
+        <v>322.9333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>322.95</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6003,18 +6691,21 @@
         <v>1107.9312</v>
       </c>
       <c r="G151" t="n">
+        <v>322.6666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>322.95</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6038,18 +6729,21 @@
         <v>785.3679</v>
       </c>
       <c r="G152" t="n">
+        <v>322.4</v>
+      </c>
+      <c r="H152" t="n">
         <v>322.9666666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6073,18 +6767,21 @@
         <v>43.2225</v>
       </c>
       <c r="G153" t="n">
+        <v>322.1333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>322.9833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6108,18 +6805,21 @@
         <v>96.53700000000001</v>
       </c>
       <c r="G154" t="n">
+        <v>322</v>
+      </c>
+      <c r="H154" t="n">
         <v>323.0333333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6143,18 +6843,21 @@
         <v>9.7281</v>
       </c>
       <c r="G155" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H155" t="n">
         <v>323.0333333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6178,18 +6881,21 @@
         <v>978.9577</v>
       </c>
       <c r="G156" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="H156" t="n">
         <v>323.0333333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6213,18 +6919,21 @@
         <v>2592.236</v>
       </c>
       <c r="G157" t="n">
+        <v>321.3333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>323.0166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6248,18 +6957,21 @@
         <v>10842.3861</v>
       </c>
       <c r="G158" t="n">
+        <v>321.1333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>323</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6283,18 +6995,21 @@
         <v>3319.82</v>
       </c>
       <c r="G159" t="n">
+        <v>320.7333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>322.95</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6318,18 +7033,21 @@
         <v>73.44750000000001</v>
       </c>
       <c r="G160" t="n">
+        <v>320.3333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>322.9</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6353,18 +7071,21 @@
         <v>13.0195</v>
       </c>
       <c r="G161" t="n">
+        <v>319.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>322.85</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6388,18 +7109,21 @@
         <v>4862.5062</v>
       </c>
       <c r="G162" t="n">
+        <v>319.4666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>322.8</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6423,18 +7147,21 @@
         <v>102.4819</v>
       </c>
       <c r="G163" t="n">
+        <v>319.1333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>322.75</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,18 +7185,21 @@
         <v>208.5902</v>
       </c>
       <c r="G164" t="n">
+        <v>318.6666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>322.6666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6493,18 +7223,21 @@
         <v>3666.4477</v>
       </c>
       <c r="G165" t="n">
+        <v>318.2666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>322.55</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6528,18 +7261,21 @@
         <v>29.8927</v>
       </c>
       <c r="G166" t="n">
+        <v>318.0666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>322.4666666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6563,18 +7299,21 @@
         <v>3042.3621</v>
       </c>
       <c r="G167" t="n">
+        <v>317.7333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>322.35</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6598,18 +7337,21 @@
         <v>1032.6187</v>
       </c>
       <c r="G168" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="H168" t="n">
         <v>322.2166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6633,18 +7375,21 @@
         <v>2832.0185</v>
       </c>
       <c r="G169" t="n">
+        <v>317</v>
+      </c>
+      <c r="H169" t="n">
         <v>322.0833333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,18 +7413,21 @@
         <v>33.7906</v>
       </c>
       <c r="G170" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="H170" t="n">
         <v>321.9333333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6703,18 +7451,21 @@
         <v>2049.3984</v>
       </c>
       <c r="G171" t="n">
+        <v>316.1333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>321.7666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6738,18 +7489,21 @@
         <v>10005.8863</v>
       </c>
       <c r="G172" t="n">
+        <v>315.7333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>321.5833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6773,18 +7527,21 @@
         <v>176.6543</v>
       </c>
       <c r="G173" t="n">
+        <v>315.6666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>321.4833333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6808,18 +7565,21 @@
         <v>31432.2594</v>
       </c>
       <c r="G174" t="n">
+        <v>315.8</v>
+      </c>
+      <c r="H174" t="n">
         <v>321.3666666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6843,18 +7603,21 @@
         <v>93.128</v>
       </c>
       <c r="G175" t="n">
+        <v>316</v>
+      </c>
+      <c r="H175" t="n">
         <v>321.2666666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6878,18 +7641,21 @@
         <v>16.9803</v>
       </c>
       <c r="G176" t="n">
+        <v>316.2</v>
+      </c>
+      <c r="H176" t="n">
         <v>321.1666666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6913,18 +7679,21 @@
         <v>197.0958</v>
       </c>
       <c r="G177" t="n">
+        <v>316.5333333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>321.0666666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6948,18 +7717,21 @@
         <v>3.2538</v>
       </c>
       <c r="G178" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="H178" t="n">
         <v>321.0166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6983,18 +7755,21 @@
         <v>100</v>
       </c>
       <c r="G179" t="n">
+        <v>317.1333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>320.9666666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7018,18 +7793,21 @@
         <v>6606.567694392524</v>
       </c>
       <c r="G180" t="n">
+        <v>317.1333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>320.8</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7053,18 +7831,21 @@
         <v>786</v>
       </c>
       <c r="G181" t="n">
+        <v>317.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>320.6833333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7088,18 +7869,21 @@
         <v>2.0656</v>
       </c>
       <c r="G182" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="H182" t="n">
         <v>320.6166666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7123,18 +7907,21 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
+        <v>317.8666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>320.5</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7158,18 +7945,21 @@
         <v>2.2626</v>
       </c>
       <c r="G184" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="H184" t="n">
         <v>320.4</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7193,18 +7983,21 @@
         <v>30.9866</v>
       </c>
       <c r="G185" t="n">
+        <v>318.6</v>
+      </c>
+      <c r="H185" t="n">
         <v>320.3</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7228,18 +8021,21 @@
         <v>97</v>
       </c>
       <c r="G186" t="n">
+        <v>319.0666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>320.2</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7263,18 +8059,21 @@
         <v>439.7774</v>
       </c>
       <c r="G187" t="n">
+        <v>319.5333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>320.1333333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7298,18 +8097,21 @@
         <v>313.2462</v>
       </c>
       <c r="G188" t="n">
+        <v>319.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>320.0166666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,18 +8135,401 @@
         <v>1453.3568</v>
       </c>
       <c r="G189" t="n">
+        <v>319.7333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>319.95</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>321</v>
+      </c>
+      <c r="C190" t="n">
+        <v>321</v>
+      </c>
+      <c r="D190" t="n">
+        <v>321</v>
+      </c>
+      <c r="E190" t="n">
+        <v>321</v>
+      </c>
+      <c r="F190" t="n">
+        <v>353.214953271028</v>
+      </c>
+      <c r="G190" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="H190" t="n">
+        <v>319.8833333333333</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>321</v>
+      </c>
+      <c r="C191" t="n">
+        <v>321</v>
+      </c>
+      <c r="D191" t="n">
+        <v>321</v>
+      </c>
+      <c r="E191" t="n">
+        <v>321</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1168.4135</v>
+      </c>
+      <c r="G191" t="n">
+        <v>319.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
+        <v>319.8333333333333</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>321</v>
+      </c>
+      <c r="C192" t="n">
+        <v>321</v>
+      </c>
+      <c r="D192" t="n">
+        <v>321</v>
+      </c>
+      <c r="E192" t="n">
+        <v>321</v>
+      </c>
+      <c r="F192" t="n">
+        <v>400.5014523364486</v>
+      </c>
+      <c r="G192" t="n">
+        <v>319.8666666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>319.7833333333334</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>322</v>
+      </c>
+      <c r="C193" t="n">
+        <v>322</v>
+      </c>
+      <c r="D193" t="n">
+        <v>322</v>
+      </c>
+      <c r="E193" t="n">
+        <v>322</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4060.9813</v>
+      </c>
+      <c r="G193" t="n">
+        <v>319.9333333333333</v>
+      </c>
+      <c r="H193" t="n">
+        <v>319.7666666666667</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>320</v>
+      </c>
+      <c r="C194" t="n">
+        <v>322</v>
+      </c>
+      <c r="D194" t="n">
+        <v>322</v>
+      </c>
+      <c r="E194" t="n">
+        <v>320</v>
+      </c>
+      <c r="F194" t="n">
+        <v>232.8251</v>
+      </c>
+      <c r="G194" t="n">
+        <v>320</v>
+      </c>
+      <c r="H194" t="n">
+        <v>319.7333333333333</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>319</v>
+      </c>
+      <c r="C195" t="n">
+        <v>319</v>
+      </c>
+      <c r="D195" t="n">
+        <v>319</v>
+      </c>
+      <c r="E195" t="n">
+        <v>319</v>
+      </c>
+      <c r="F195" t="n">
+        <v>372.8981</v>
+      </c>
+      <c r="G195" t="n">
+        <v>320.2666666666667</v>
+      </c>
+      <c r="H195" t="n">
+        <v>319.65</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>319</v>
+      </c>
+      <c r="C196" t="n">
+        <v>319</v>
+      </c>
+      <c r="D196" t="n">
+        <v>319</v>
+      </c>
+      <c r="E196" t="n">
+        <v>319</v>
+      </c>
+      <c r="F196" t="n">
+        <v>781.7531</v>
+      </c>
+      <c r="G196" t="n">
+        <v>320.2666666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>319.5666666666667</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>321</v>
+      </c>
+      <c r="C197" t="n">
+        <v>323</v>
+      </c>
+      <c r="D197" t="n">
+        <v>323</v>
+      </c>
+      <c r="E197" t="n">
+        <v>321</v>
+      </c>
+      <c r="F197" t="n">
+        <v>18232.208</v>
+      </c>
+      <c r="G197" t="n">
+        <v>320.4666666666666</v>
+      </c>
+      <c r="H197" t="n">
+        <v>319.55</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>322</v>
+      </c>
+      <c r="C198" t="n">
+        <v>325</v>
+      </c>
+      <c r="D198" t="n">
+        <v>325</v>
+      </c>
+      <c r="E198" t="n">
+        <v>321</v>
+      </c>
+      <c r="F198" t="n">
+        <v>28981.8612</v>
+      </c>
+      <c r="G198" t="n">
+        <v>320.8666666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>319.5666666666667</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>325</v>
+      </c>
+      <c r="C199" t="n">
+        <v>325</v>
+      </c>
+      <c r="D199" t="n">
+        <v>325</v>
+      </c>
+      <c r="E199" t="n">
+        <v>325</v>
+      </c>
+      <c r="F199" t="n">
+        <v>306.6953</v>
+      </c>
+      <c r="G199" t="n">
+        <v>321.2</v>
+      </c>
+      <c r="H199" t="n">
+        <v>319.6</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>56397.3132</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>62679.77770000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>61289.45020000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>61228.8757</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>61271.12700000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>62304.39040000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>54710.77650000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>54079.51590000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>57667.3034</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>57671.47100000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>56079.13160000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,22 +3223,15 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>309</v>
-      </c>
-      <c r="K86" t="n">
-        <v>309</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3520,26 +3256,15 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>309</v>
-      </c>
-      <c r="K87" t="n">
-        <v>309</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3564,26 +3289,15 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>309</v>
-      </c>
-      <c r="K88" t="n">
-        <v>309</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3608,22 +3322,19 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="J89" t="n">
         <v>309</v>
       </c>
-      <c r="K89" t="n">
-        <v>309</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3648,26 +3359,21 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>311</v>
-      </c>
-      <c r="K90" t="n">
         <v>309</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3692,26 +3398,21 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>311</v>
-      </c>
-      <c r="K91" t="n">
         <v>309</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3736,22 +3437,15 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>311</v>
-      </c>
-      <c r="K92" t="n">
-        <v>311</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3776,26 +3470,21 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>310</v>
       </c>
-      <c r="K93" t="n">
-        <v>311</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,26 +3509,21 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>310</v>
       </c>
-      <c r="K94" t="n">
-        <v>311</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3864,26 +3548,21 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>310</v>
       </c>
-      <c r="K95" t="n">
-        <v>311</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3908,26 +3587,21 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>310</v>
       </c>
-      <c r="K96" t="n">
-        <v>311</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3952,26 +3626,21 @@
         <v>18236.14200000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>310</v>
       </c>
-      <c r="K97" t="n">
-        <v>311</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3996,26 +3665,21 @@
         <v>14598.36030000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>311</v>
       </c>
-      <c r="K98" t="n">
-        <v>311</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4040,26 +3704,21 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>310</v>
       </c>
-      <c r="K99" t="n">
-        <v>311</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4084,26 +3743,21 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>311</v>
       </c>
-      <c r="K100" t="n">
-        <v>311</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4128,26 +3782,21 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>311</v>
       </c>
-      <c r="K101" t="n">
-        <v>311</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4172,26 +3821,21 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>312</v>
       </c>
-      <c r="K102" t="n">
-        <v>311</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4216,24 +3860,21 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>311</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4260,22 +3901,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>311</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4302,22 +3938,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>311</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4344,22 +3975,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>311</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4386,22 +4012,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>311</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4428,22 +4049,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>311</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4470,22 +4086,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>311</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4512,22 +4123,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>311</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4554,22 +4160,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>311</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4596,22 +4197,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>311</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4638,22 +4234,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>311</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4680,22 +4271,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>311</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4722,22 +4308,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>311</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4764,22 +4345,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>311</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4806,22 +4382,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>311</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4848,22 +4419,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>311</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4890,22 +4456,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>311</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4932,22 +4493,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>311</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4974,22 +4530,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>311</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5016,22 +4567,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>311</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5058,22 +4604,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>311</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5100,22 +4641,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>311</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5142,22 +4678,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>311</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5184,22 +4715,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>311</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5226,22 +4752,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>311</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5268,22 +4789,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>311</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5310,22 +4826,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>311</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5352,22 +4863,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>311</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5394,22 +4900,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>311</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5436,22 +4937,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>311</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5478,22 +4974,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>311</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5520,22 +5011,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>311</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5562,22 +5048,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>311</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5604,22 +5085,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>311</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5646,22 +5122,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>311</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5688,22 +5159,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>311</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5730,22 +5196,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>311</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5772,22 +5233,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>311</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5814,22 +5270,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>311</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5856,22 +5307,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>311</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5898,22 +5344,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>311</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5940,22 +5381,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>311</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5982,22 +5418,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>311</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6024,22 +5455,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>311</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6066,22 +5492,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>311</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6108,22 +5529,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>311</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6150,22 +5566,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>311</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6192,22 +5603,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>311</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6234,22 +5640,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>311</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6276,22 +5677,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>311</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6318,22 +5714,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>311</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6360,22 +5751,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>311</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6402,22 +5788,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>311</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6444,22 +5825,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>311</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6486,22 +5862,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>311</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6528,22 +5899,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>311</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6570,22 +5936,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>311</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6612,22 +5973,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>311</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6654,22 +6010,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>311</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6696,22 +6047,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>311</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6738,22 +6084,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>311</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6780,22 +6121,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>311</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6822,22 +6158,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>311</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6864,22 +6195,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>311</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6906,22 +6232,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>311</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6948,22 +6269,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>311</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6990,22 +6306,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>311</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7032,22 +6343,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>311</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7074,22 +6380,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>311</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7116,22 +6417,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>311</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1.043231511254019</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7158,16 +6454,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7192,18 +6489,17 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7228,18 +6524,15 @@
         <v>270094.7331871474</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7264,18 +6557,15 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7300,18 +6590,15 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7336,18 +6623,15 @@
         <v>219733.3924871474</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7372,18 +6656,15 @@
         <v>233530.5203871473</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7410,16 +6691,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7444,18 +6722,15 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7482,16 +6757,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7518,16 +6790,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7554,16 +6823,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7590,16 +6856,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7624,18 +6887,15 @@
         <v>211688.2944871473</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7662,16 +6922,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7698,16 +6955,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7732,18 +6986,15 @@
         <v>209950.4600871473</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7770,16 +7021,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7806,16 +7054,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7842,16 +7087,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7878,16 +7120,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7914,16 +7153,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7950,16 +7186,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7986,16 +7219,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8022,16 +7252,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8058,16 +7285,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8094,16 +7318,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8130,16 +7351,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8166,16 +7384,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8202,16 +7417,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8238,16 +7450,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8274,16 +7483,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8310,16 +7516,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8346,16 +7549,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8382,16 +7582,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8418,16 +7615,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8454,16 +7648,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8490,16 +7681,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8526,16 +7714,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8562,16 +7747,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8598,16 +7780,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8634,16 +7813,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8670,16 +7846,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8706,16 +7879,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8742,16 +7912,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8778,16 +7945,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8814,16 +7978,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8850,16 +8011,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8886,16 +8044,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8920,18 +8075,15 @@
         <v>163589.2580871473</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8958,16 +8110,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8994,16 +8143,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9030,16 +8176,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9066,16 +8209,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9102,16 +8242,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9138,16 +8275,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9172,18 +8306,15 @@
         <v>154827.1519871473</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9208,18 +8339,15 @@
         <v>154827.1519871473</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9244,18 +8372,15 @@
         <v>155003.8062871473</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9280,18 +8405,15 @@
         <v>186436.0656871473</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9316,18 +8438,15 @@
         <v>186529.1936871473</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9352,18 +8471,15 @@
         <v>186529.1936871473</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9388,18 +8504,15 @@
         <v>186726.2894871473</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9424,18 +8537,15 @@
         <v>186726.2894871473</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9460,18 +8570,15 @@
         <v>186726.2894871473</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9496,18 +8603,15 @@
         <v>180119.7217927548</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9534,16 +8638,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9570,16 +8671,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9606,16 +8704,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9640,18 +8735,15 @@
         <v>180900.0499927548</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9678,16 +8770,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9714,16 +8803,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9750,16 +8836,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9786,16 +8869,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9822,16 +8902,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9858,16 +8935,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9894,16 +8968,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9930,16 +9001,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9966,16 +9034,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10002,16 +9067,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10038,16 +9100,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10074,16 +9133,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10110,16 +9166,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10146,16 +9199,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10182,18 +9232,15 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>56397.3132</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>62679.77770000001</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>61289.45020000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>61228.8757</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>61271.12700000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>62304.39040000001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>54710.77650000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>54079.51590000001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>57667.3034</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>57671.47100000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>56079.13160000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1111,10 +1111,14 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>318</v>
+      </c>
+      <c r="J22" t="n">
+        <v>318</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1144,11 +1148,19 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>317</v>
+      </c>
+      <c r="J23" t="n">
+        <v>318</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1189,19 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>317</v>
+      </c>
+      <c r="J24" t="n">
+        <v>318</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,10 +1230,14 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>317</v>
+      </c>
+      <c r="J25" t="n">
+        <v>317</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1243,11 +1267,19 @@
         <v>61416.25020000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>317</v>
+      </c>
+      <c r="J26" t="n">
+        <v>317</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1308,19 @@
         <v>61440.58770000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>316</v>
+      </c>
+      <c r="J27" t="n">
+        <v>317</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,10 +1349,14 @@
         <v>61440.58770000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>317</v>
+      </c>
+      <c r="J28" t="n">
+        <v>317</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1345,8 +1389,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>317</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>317</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -3190,10 +3246,14 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>309</v>
+      </c>
+      <c r="J85" t="n">
+        <v>309</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3223,11 +3283,19 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>309</v>
+      </c>
+      <c r="J86" t="n">
+        <v>309</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3324,19 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>309</v>
+      </c>
+      <c r="J87" t="n">
+        <v>309</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,10 +3365,14 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>309</v>
+      </c>
+      <c r="J88" t="n">
+        <v>309</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3322,7 +3402,7 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>309</v>
@@ -3330,7 +3410,11 @@
       <c r="J89" t="n">
         <v>309</v>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,9 +3443,11 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>311</v>
+      </c>
       <c r="J90" t="n">
         <v>309</v>
       </c>
@@ -3398,17 +3484,15 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>311</v>
+      </c>
       <c r="J91" t="n">
-        <v>309</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3437,11 +3521,19 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>311</v>
+      </c>
+      <c r="J92" t="n">
+        <v>311</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3470,12 +3562,14 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>310</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>311</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3509,12 +3603,14 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>310</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>311</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,12 +3644,14 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>310</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>311</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3587,12 +3685,14 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>310</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>311</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,12 +3726,14 @@
         <v>18236.14200000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>310</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>311</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3665,12 +3767,14 @@
         <v>14598.36030000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>311</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>311</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,12 +3808,14 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>310</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>311</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,12 +3849,14 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>311</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>311</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,12 +3890,14 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>311</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>311</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,12 +3931,14 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>312</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>311</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,12 +3972,14 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>312</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>311</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,10 +4013,14 @@
         <v>15655.24620000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>312</v>
+      </c>
+      <c r="J104" t="n">
+        <v>311</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,7 +4057,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>311</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,7 +4096,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>311</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,7 +4135,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>311</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,7 +4174,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>311</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,7 +4213,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>311</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,7 +4252,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>311</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4161,7 +4291,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>311</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,7 +4330,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>311</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,7 +4369,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>311</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,7 +4408,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>311</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,7 +4447,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>311</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,7 +4486,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>311</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4383,7 +4525,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>311</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,7 +4564,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>311</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,7 +4603,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>311</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>311</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,7 +4681,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>311</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,7 +4720,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>311</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,7 +4759,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>311</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,7 +4798,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>311</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,7 +4837,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>311</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,7 +4876,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>311</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,7 +4915,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>311</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,7 +4954,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>311</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,7 +4993,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>311</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,7 +5032,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>311</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,7 +5071,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>311</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,7 +5110,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>311</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,7 +5149,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>311</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,7 +5188,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>311</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,7 +5227,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>311</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,7 +5266,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>311</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,7 +5305,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>311</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,7 +5344,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>311</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,7 +5383,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>311</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,7 +5422,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>311</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,7 +5461,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>311</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,7 +5500,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>311</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,7 +5539,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>311</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,7 +5578,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>311</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,7 +5617,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>311</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,7 +5656,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>311</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,7 +5695,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>311</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,7 +5734,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>311</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,7 +5773,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>311</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5604,7 +5812,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>311</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5641,7 +5851,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>311</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5678,7 +5890,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>311</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,7 +5929,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>311</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,7 +5968,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>311</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5789,7 +6007,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>311</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5826,7 +6046,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>311</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,7 +6085,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>311</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5900,7 +6124,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>311</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,7 +6163,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>311</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5974,7 +6202,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>311</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,7 +6241,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>311</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,7 +6280,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>311</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,7 +6319,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>311</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6122,7 +6358,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>311</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,7 +6397,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>311</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6196,7 +6436,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>311</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6233,7 +6475,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>311</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,7 +6514,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>311</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,7 +6553,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>311</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,7 +6592,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>311</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6381,7 +6631,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>311</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,7 +6670,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>311</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6455,7 +6709,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>311</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6489,16 +6745,20 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>311</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -6524,11 +6784,17 @@
         <v>270094.7331871474</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>311</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6557,11 +6823,17 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>311</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6590,11 +6862,17 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>311</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6623,11 +6901,17 @@
         <v>219733.3924871474</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>311</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6656,11 +6940,17 @@
         <v>233530.5203871473</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>311</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6692,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>311</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +7018,17 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>311</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6758,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>311</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6791,8 +7099,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>311</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6824,8 +7138,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>311</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6857,8 +7177,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>311</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +7213,17 @@
         <v>211688.2944871473</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>311</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6923,8 +7255,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>311</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6956,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>311</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6986,13 +7330,19 @@
         <v>209950.4600871473</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>311</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>1.036800643086817</v>
       </c>
       <c r="M189" t="inlineStr"/>
     </row>
@@ -7052,7 +7402,7 @@
         <v>209762.2584871473</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7085,7 +7435,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7118,7 +7468,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7151,7 +7501,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7184,7 +7534,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7217,7 +7567,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7250,7 +7600,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7283,7 +7633,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7316,7 +7666,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7349,7 +7699,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7382,7 +7732,7 @@
         <v>202792.6946871473</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7415,7 +7765,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7448,7 +7798,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7481,7 +7831,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7514,7 +7864,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7547,7 +7897,7 @@
         <v>173347.7842871473</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7580,7 +7930,7 @@
         <v>176451.8446871473</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7778,7 +8128,7 @@
         <v>174469.9285871473</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7811,7 +8161,7 @@
         <v>174469.9285871473</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7844,7 +8194,7 @@
         <v>171877.6925871473</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7877,7 +8227,7 @@
         <v>171877.6925871473</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7910,7 +8260,7 @@
         <v>168557.8725871473</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7943,7 +8293,7 @@
         <v>168557.8725871473</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7976,7 +8326,7 @@
         <v>168557.8725871473</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8009,7 +8359,7 @@
         <v>163695.3663871473</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8042,7 +8392,7 @@
         <v>163797.8482871473</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8075,7 +8425,7 @@
         <v>163589.2580871473</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8108,7 +8458,7 @@
         <v>159922.8103871473</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8141,7 +8491,7 @@
         <v>159952.7030871473</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8174,7 +8524,7 @@
         <v>156910.3409871473</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8207,7 +8557,7 @@
         <v>156910.3409871473</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8240,7 +8590,7 @@
         <v>156910.3409871473</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8273,7 +8623,7 @@
         <v>156876.5503871473</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8306,7 +8656,7 @@
         <v>154827.1519871473</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8339,7 +8689,7 @@
         <v>154827.1519871473</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8372,7 +8722,7 @@
         <v>155003.8062871473</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8405,7 +8755,7 @@
         <v>186436.0656871473</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8438,7 +8788,7 @@
         <v>186529.1936871473</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8471,7 +8821,7 @@
         <v>186529.1936871473</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8504,7 +8854,7 @@
         <v>186726.2894871473</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8537,7 +8887,7 @@
         <v>186726.2894871473</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8570,7 +8920,7 @@
         <v>186726.2894871473</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8603,7 +8953,7 @@
         <v>180119.7217927548</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8735,7 +9085,7 @@
         <v>180900.0499927548</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9241,6 +9591,6 @@
       <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,14 +1111,10 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>318</v>
-      </c>
-      <c r="J22" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1148,19 +1144,11 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>317</v>
-      </c>
-      <c r="J23" t="n">
-        <v>318</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1189,19 +1177,11 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>317</v>
-      </c>
-      <c r="J24" t="n">
-        <v>318</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1210,10 @@
         <v>62368.49380000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>317</v>
-      </c>
-      <c r="J25" t="n">
-        <v>317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1267,19 +1243,11 @@
         <v>61416.25020000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>317</v>
-      </c>
-      <c r="J26" t="n">
-        <v>317</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1308,19 +1276,11 @@
         <v>61440.58770000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>316</v>
-      </c>
-      <c r="J27" t="n">
-        <v>317</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1309,10 @@
         <v>61440.58770000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>317</v>
-      </c>
-      <c r="J28" t="n">
-        <v>317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1389,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>317</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>317</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -3484,14 +3428,10 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>311</v>
-      </c>
-      <c r="J91" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3529,11 +3469,7 @@
       <c r="J92" t="n">
         <v>311</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3603,11 +3539,9 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>311</v>
       </c>
@@ -3644,11 +3578,9 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>311</v>
       </c>
@@ -3726,11 +3658,9 @@
         <v>18236.14200000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>311</v>
       </c>
@@ -3767,11 +3697,9 @@
         <v>14598.36030000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>311</v>
       </c>
@@ -3808,11 +3736,9 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>311</v>
       </c>
@@ -3849,11 +3775,9 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>311</v>
       </c>
@@ -3890,11 +3814,9 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>311</v>
       </c>
@@ -3931,11 +3853,9 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>311</v>
       </c>
@@ -3972,11 +3892,9 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>311</v>
       </c>
@@ -4013,11 +3931,9 @@
         <v>15655.24620000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>311</v>
       </c>
@@ -5224,7 +5140,7 @@
         <v>14808.25540000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
@@ -5232,11 +5148,11 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>1.011077170418007</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
@@ -5263,17 +5179,11 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>311</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5302,17 +5212,11 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>311</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5341,17 +5245,11 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>311</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5380,17 +5278,11 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>311</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5419,17 +5311,11 @@
         <v>58330.9801</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>311</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5458,17 +5344,11 @@
         <v>58330.9801</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>311</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5497,17 +5377,11 @@
         <v>58330.9801</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>311</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5536,17 +5410,11 @@
         <v>58285.3239</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>311</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5575,17 +5443,11 @@
         <v>58285.3239</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>311</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5614,17 +5476,11 @@
         <v>58286.3239</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>311</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5653,17 +5509,11 @@
         <v>58277.3239</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>311</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5692,17 +5542,11 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>311</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5731,17 +5575,11 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>311</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5770,17 +5608,11 @@
         <v>61254.66738714734</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>311</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5809,17 +5641,11 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>311</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5848,17 +5674,11 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>311</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5887,17 +5707,11 @@
         <v>58153.81158714733</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>311</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5926,17 +5740,11 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>311</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5965,17 +5773,11 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>311</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6004,17 +5806,11 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>311</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6046,14 +5842,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>311</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6085,14 +5875,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>311</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6124,14 +5908,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>311</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6163,14 +5941,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>311</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6199,17 +5971,11 @@
         <v>74478.11148714733</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>311</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6238,17 +6004,11 @@
         <v>75283.60398714732</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>311</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6277,17 +6037,11 @@
         <v>77049.49508714731</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>311</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6316,17 +6070,11 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>311</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6355,17 +6103,11 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>311</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6394,17 +6136,11 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>311</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6433,17 +6169,11 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>311</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6472,17 +6202,11 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>311</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6511,17 +6235,11 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>311</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6550,17 +6268,11 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>311</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6592,14 +6304,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>311</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6631,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>311</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6370,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>311</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6709,14 +6403,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>311</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6748,14 +6436,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>311</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +6469,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>311</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6826,14 +6502,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>311</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6865,14 +6535,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>311</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6904,14 +6568,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>311</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6943,14 +6601,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>311</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6982,14 +6634,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>311</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7021,14 +6667,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>311</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6700,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>311</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7099,14 +6733,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>311</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7138,14 +6766,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>311</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7177,14 +6799,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>311</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7216,14 +6832,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>311</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7255,14 +6865,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>311</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +6898,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>311</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7330,19 +6928,13 @@
         <v>209950.4600871473</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>311</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>1.036800643086817</v>
+        <v>1</v>
       </c>
       <c r="M189" t="inlineStr"/>
     </row>
@@ -7402,7 +6994,7 @@
         <v>209762.2584871473</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7435,7 +7027,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7468,7 +7060,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7501,7 +7093,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7534,7 +7126,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7567,7 +7159,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7600,7 +7192,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7633,7 +7225,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7666,7 +7258,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7864,7 +7456,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7897,7 +7489,7 @@
         <v>173347.7842871473</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7930,7 +7522,7 @@
         <v>176451.8446871473</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8128,7 +7720,7 @@
         <v>174469.9285871473</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8161,7 +7753,7 @@
         <v>174469.9285871473</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8194,7 +7786,7 @@
         <v>171877.6925871473</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8227,7 +7819,7 @@
         <v>171877.6925871473</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8260,7 +7852,7 @@
         <v>168557.8725871473</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8293,7 +7885,7 @@
         <v>168557.8725871473</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8326,7 +7918,7 @@
         <v>168557.8725871473</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8359,7 +7951,7 @@
         <v>163695.3663871473</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8392,7 +7984,7 @@
         <v>163797.8482871473</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8425,7 +8017,7 @@
         <v>163589.2580871473</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8458,7 +8050,7 @@
         <v>159922.8103871473</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8491,7 +8083,7 @@
         <v>159952.7030871473</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8524,7 +8116,7 @@
         <v>156910.3409871473</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8557,7 +8149,7 @@
         <v>156910.3409871473</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8590,7 +8182,7 @@
         <v>156910.3409871473</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8623,7 +8215,7 @@
         <v>156876.5503871473</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8656,7 +8248,7 @@
         <v>154827.1519871473</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9580,7 +9172,7 @@
         <v>232942.3129927548</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9591,6 +9183,6 @@
       <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -517,7 +517,7 @@
         <v>61289.45020000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>61228.8757</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>54710.77650000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>54079.51590000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>57667.3034</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>56079.13160000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -3190,14 +3190,10 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>309</v>
-      </c>
-      <c r="J85" t="n">
-        <v>309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3235,11 +3231,7 @@
       <c r="J86" t="n">
         <v>309</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3317,7 +3309,11 @@
       <c r="J88" t="n">
         <v>309</v>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3350,7 @@
       <c r="J89" t="n">
         <v>309</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3420,19 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>311</v>
+      </c>
+      <c r="J91" t="n">
+        <v>309</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3539,9 +3539,11 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>310</v>
+      </c>
       <c r="J94" t="n">
         <v>311</v>
       </c>
@@ -3578,9 +3580,11 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>310</v>
+      </c>
       <c r="J95" t="n">
         <v>311</v>
       </c>
@@ -3658,9 +3662,11 @@
         <v>18236.14200000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>310</v>
+      </c>
       <c r="J97" t="n">
         <v>311</v>
       </c>
@@ -3697,9 +3703,11 @@
         <v>14598.36030000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>311</v>
+      </c>
       <c r="J98" t="n">
         <v>311</v>
       </c>
@@ -3736,9 +3744,11 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>310</v>
+      </c>
       <c r="J99" t="n">
         <v>311</v>
       </c>
@@ -3775,9 +3785,11 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>311</v>
+      </c>
       <c r="J100" t="n">
         <v>311</v>
       </c>
@@ -3814,9 +3826,11 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>311</v>
+      </c>
       <c r="J101" t="n">
         <v>311</v>
       </c>
@@ -3853,9 +3867,11 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>312</v>
+      </c>
       <c r="J102" t="n">
         <v>311</v>
       </c>
@@ -3892,9 +3908,11 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>312</v>
+      </c>
       <c r="J103" t="n">
         <v>311</v>
       </c>
@@ -3931,9 +3949,11 @@
         <v>15655.24620000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>312</v>
+      </c>
       <c r="J104" t="n">
         <v>311</v>
       </c>
@@ -3970,9 +3990,11 @@
         <v>15655.24620000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>313</v>
+      </c>
       <c r="J105" t="n">
         <v>311</v>
       </c>
@@ -4828,9 +4850,11 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>314</v>
+      </c>
       <c r="J127" t="n">
         <v>311</v>
       </c>
@@ -4906,9 +4930,11 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>315</v>
+      </c>
       <c r="J129" t="n">
         <v>311</v>
       </c>
@@ -4945,9 +4971,11 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>315</v>
+      </c>
       <c r="J130" t="n">
         <v>311</v>
       </c>
@@ -4984,9 +5012,11 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>315</v>
+      </c>
       <c r="J131" t="n">
         <v>311</v>
       </c>
@@ -5023,9 +5053,11 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>315</v>
+      </c>
       <c r="J132" t="n">
         <v>311</v>
       </c>
@@ -5062,9 +5094,11 @@
         <v>14768.40700000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>315</v>
+      </c>
       <c r="J133" t="n">
         <v>311</v>
       </c>
@@ -5101,9 +5135,11 @@
         <v>14814.93960000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>316</v>
+      </c>
       <c r="J134" t="n">
         <v>311</v>
       </c>
@@ -5140,19 +5176,21 @@
         <v>14808.25540000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>317</v>
+      </c>
       <c r="J135" t="n">
         <v>311</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.011077170418007</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
@@ -5179,11 +5217,19 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>316</v>
+      </c>
+      <c r="J136" t="n">
+        <v>311</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5212,11 +5258,19 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>317</v>
+      </c>
+      <c r="J137" t="n">
+        <v>311</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5245,11 +5299,17 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>311</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5278,11 +5338,17 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>311</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5311,11 +5377,17 @@
         <v>58330.9801</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>311</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5344,11 +5416,17 @@
         <v>58330.9801</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>311</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5377,11 +5455,17 @@
         <v>58330.9801</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>311</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5410,11 +5494,17 @@
         <v>58285.3239</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>311</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +5533,17 @@
         <v>58285.3239</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>311</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5476,11 +5572,17 @@
         <v>58286.3239</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>311</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5509,11 +5611,17 @@
         <v>58277.3239</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>311</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +5650,17 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>311</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +5689,17 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>311</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +5728,17 @@
         <v>61254.66738714734</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>311</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5767,17 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>311</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5806,17 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>311</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5845,17 @@
         <v>58153.81158714733</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>311</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +5884,17 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>311</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5923,17 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>311</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5806,11 +5962,17 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>311</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5842,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>311</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5875,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>311</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5908,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>311</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5941,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>311</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5971,11 +6157,17 @@
         <v>74478.11148714733</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>311</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6004,11 +6196,17 @@
         <v>75283.60398714732</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>311</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +6235,17 @@
         <v>77049.49508714731</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>311</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6070,11 +6274,17 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>311</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6103,11 +6313,17 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>311</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6136,11 +6352,17 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>311</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6169,11 +6391,17 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>311</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6202,11 +6430,17 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>311</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6235,11 +6469,17 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>311</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6268,11 +6508,17 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>311</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>311</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>311</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6370,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>311</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6400,13 +6664,19 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>311</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>1.043231511254019</v>
       </c>
       <c r="M173" t="inlineStr"/>
     </row>
@@ -6433,7 +6703,7 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6466,7 +6736,7 @@
         <v>270094.7331871474</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6499,7 +6769,7 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6532,7 +6802,7 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6565,7 +6835,7 @@
         <v>219733.3924871474</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6631,7 +6901,7 @@
         <v>217884.6527871474</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6730,7 +7000,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6763,7 +7033,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6796,7 +7066,7 @@
         <v>211585.2944871473</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6829,7 +7099,7 @@
         <v>211688.2944871473</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6862,7 +7132,7 @@
         <v>211551.2944871473</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6895,7 +7165,7 @@
         <v>211551.2944871473</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7093,7 +7363,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7192,7 +7462,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7291,7 +7561,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7324,7 +7594,7 @@
         <v>202792.6946871473</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7357,7 +7627,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7390,7 +7660,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -9172,7 +9442,7 @@
         <v>232942.3129927548</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-31 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>13153.9976</v>
       </c>
       <c r="G2" t="n">
-        <v>56397.3132</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6282.4645</v>
       </c>
       <c r="G3" t="n">
-        <v>62679.77770000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1390.3275</v>
       </c>
       <c r="G4" t="n">
-        <v>61289.45020000001</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>60.5745</v>
       </c>
       <c r="G5" t="n">
-        <v>61228.8757</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>42.2513</v>
       </c>
       <c r="G6" t="n">
-        <v>61271.12700000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1033.2634</v>
       </c>
       <c r="G7" t="n">
-        <v>62304.39040000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>7593.6139</v>
       </c>
       <c r="G8" t="n">
-        <v>54710.77650000001</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>631.2606</v>
       </c>
       <c r="G9" t="n">
-        <v>54079.51590000001</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3587.7875</v>
       </c>
       <c r="G10" t="n">
-        <v>57667.3034</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4.1676</v>
       </c>
       <c r="G11" t="n">
-        <v>57671.47100000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1592.3394</v>
       </c>
       <c r="G12" t="n">
-        <v>56079.13160000001</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>907.5247000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>55171.60690000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9423.549000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>64595.15590000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>64598.15590000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>568</v>
       </c>
       <c r="G16" t="n">
-        <v>64598.15590000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>634.1464</v>
       </c>
       <c r="G17" t="n">
-        <v>63964.00950000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>63961.00950000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2155.6138</v>
       </c>
       <c r="G19" t="n">
-        <v>63961.00950000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>24.2605</v>
       </c>
       <c r="G20" t="n">
-        <v>63961.00950000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1076.8961</v>
       </c>
       <c r="G21" t="n">
-        <v>63961.00950000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1592.5157</v>
       </c>
       <c r="G22" t="n">
-        <v>62368.49380000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>472.6596</v>
       </c>
       <c r="G23" t="n">
-        <v>62368.49380000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>927.2696999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>62368.49380000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>277.6086</v>
       </c>
       <c r="G25" t="n">
-        <v>62368.49380000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>952.2436</v>
       </c>
       <c r="G26" t="n">
-        <v>61416.25020000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>24.3375</v>
       </c>
       <c r="G27" t="n">
-        <v>61440.58770000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1302.6536</v>
       </c>
       <c r="G28" t="n">
-        <v>61440.58770000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>61440.58770000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>996</v>
       </c>
       <c r="G30" t="n">
-        <v>62436.58770000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>13592.0173</v>
       </c>
       <c r="G31" t="n">
-        <v>48844.57040000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>140.4287</v>
       </c>
       <c r="G32" t="n">
-        <v>48844.57040000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1352.3255</v>
       </c>
       <c r="G33" t="n">
-        <v>50196.89590000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>3120.7507</v>
       </c>
       <c r="G34" t="n">
-        <v>50196.89590000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>101.3904</v>
       </c>
       <c r="G35" t="n">
-        <v>50196.89590000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>563</v>
       </c>
       <c r="G36" t="n">
-        <v>50196.89590000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>758.8749</v>
       </c>
       <c r="G37" t="n">
-        <v>50196.89590000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>13.0249</v>
       </c>
       <c r="G38" t="n">
-        <v>50209.92080000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>50209.92080000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>414.1887</v>
       </c>
       <c r="G40" t="n">
-        <v>49795.73210000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>397.7349</v>
       </c>
       <c r="G41" t="n">
-        <v>49795.73210000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>205.4668</v>
       </c>
       <c r="G42" t="n">
-        <v>49795.73210000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2679.578</v>
       </c>
       <c r="G43" t="n">
-        <v>47116.15410000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1987.6833</v>
       </c>
       <c r="G44" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>702</v>
       </c>
       <c r="G45" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1329</v>
       </c>
       <c r="G46" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>404</v>
       </c>
       <c r="G47" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1538.0997</v>
       </c>
       <c r="G48" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>94.1122</v>
       </c>
       <c r="G49" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>500.7881</v>
       </c>
       <c r="G50" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>898.3533</v>
       </c>
       <c r="G51" t="n">
-        <v>49103.8374</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>50103.8374</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>394.1723</v>
       </c>
       <c r="G53" t="n">
-        <v>50103.8374</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>538</v>
       </c>
       <c r="G54" t="n">
-        <v>50103.8374</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2708.3625</v>
       </c>
       <c r="G55" t="n">
-        <v>50103.8374</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>247.2753</v>
       </c>
       <c r="G56" t="n">
-        <v>49856.5621</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>895</v>
       </c>
       <c r="G57" t="n">
-        <v>49856.5621</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1919.5742</v>
       </c>
       <c r="G58" t="n">
-        <v>49856.5621</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>47.4441</v>
       </c>
       <c r="G59" t="n">
-        <v>49809.118</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>49810.118</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>49810.118</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6201</v>
       </c>
       <c r="G62" t="n">
-        <v>43609.118</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>13849.8853</v>
       </c>
       <c r="G63" t="n">
-        <v>29759.2327</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1034</v>
       </c>
       <c r="G64" t="n">
-        <v>30793.2327</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>5621.9273</v>
       </c>
       <c r="G65" t="n">
-        <v>25171.3054</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1090.8198</v>
       </c>
       <c r="G66" t="n">
-        <v>26262.1252</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>105</v>
       </c>
       <c r="G67" t="n">
-        <v>26157.1252</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1483</v>
       </c>
       <c r="G68" t="n">
-        <v>26157.1252</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>4073.5185</v>
       </c>
       <c r="G69" t="n">
-        <v>26157.1252</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>6291.4224</v>
       </c>
       <c r="G70" t="n">
-        <v>26157.1252</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>12.0019</v>
       </c>
       <c r="G71" t="n">
-        <v>26157.1252</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>520.67</v>
       </c>
       <c r="G72" t="n">
-        <v>25636.4552</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1118</v>
       </c>
       <c r="G73" t="n">
-        <v>25636.4552</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>133.2564</v>
       </c>
       <c r="G74" t="n">
-        <v>25636.4552</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>7969.5844</v>
       </c>
       <c r="G75" t="n">
-        <v>25636.4552</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>318.4892</v>
       </c>
       <c r="G76" t="n">
-        <v>25636.4552</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>946</v>
       </c>
       <c r="G77" t="n">
-        <v>24690.4552</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1892</v>
       </c>
       <c r="G78" t="n">
-        <v>24690.4552</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>477.9999</v>
       </c>
       <c r="G79" t="n">
-        <v>24690.4552</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>3584.0404</v>
       </c>
       <c r="G80" t="n">
-        <v>21106.41480000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>870.4939000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>21106.41480000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1569.948</v>
       </c>
       <c r="G82" t="n">
-        <v>21106.41480000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>540</v>
       </c>
       <c r="G83" t="n">
-        <v>20566.41480000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1266.5386</v>
       </c>
       <c r="G84" t="n">
-        <v>19299.87620000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1936.6242</v>
       </c>
       <c r="G85" t="n">
-        <v>19299.87620000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,22 +2963,15 @@
         <v>306.8705</v>
       </c>
       <c r="G86" t="n">
-        <v>19299.87620000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>309</v>
-      </c>
-      <c r="J86" t="n">
-        <v>309</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3257,26 +2993,15 @@
         <v>359.6816</v>
       </c>
       <c r="G87" t="n">
-        <v>19299.87620000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>309</v>
-      </c>
-      <c r="J87" t="n">
-        <v>309</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3298,26 +3023,15 @@
         <v>3866.0864</v>
       </c>
       <c r="G88" t="n">
-        <v>19299.87620000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>309</v>
-      </c>
-      <c r="J88" t="n">
-        <v>309</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3339,22 +3053,15 @@
         <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>19303.87620000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>309</v>
-      </c>
-      <c r="J89" t="n">
-        <v>309</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3376,26 +3083,15 @@
         <v>1465.362</v>
       </c>
       <c r="G90" t="n">
-        <v>19303.87620000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>311</v>
-      </c>
-      <c r="J90" t="n">
-        <v>309</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3417,26 +3113,15 @@
         <v>1392.094</v>
       </c>
       <c r="G91" t="n">
-        <v>19303.87620000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>311</v>
-      </c>
-      <c r="J91" t="n">
-        <v>309</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3458,22 +3143,19 @@
         <v>1256.7342</v>
       </c>
       <c r="G92" t="n">
-        <v>18047.14200000001</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I92" t="n">
         <v>311</v>
       </c>
-      <c r="J92" t="n">
-        <v>311</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3495,26 +3177,23 @@
         <v>174.3081</v>
       </c>
       <c r="G93" t="n">
-        <v>18047.14200000001</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="I93" t="n">
-        <v>310</v>
-      </c>
-      <c r="J93" t="n">
-        <v>311</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>311</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3536,26 +3215,23 @@
         <v>754.8457</v>
       </c>
       <c r="G94" t="n">
-        <v>18047.14200000001</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="I94" t="n">
-        <v>310</v>
-      </c>
-      <c r="J94" t="n">
-        <v>311</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3577,26 +3253,23 @@
         <v>615.7406999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>18047.14200000001</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="I95" t="n">
-        <v>310</v>
-      </c>
-      <c r="J95" t="n">
-        <v>311</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3618,26 +3291,23 @@
         <v>318.4118</v>
       </c>
       <c r="G96" t="n">
-        <v>18047.14200000001</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="I96" t="n">
-        <v>310</v>
-      </c>
-      <c r="J96" t="n">
-        <v>311</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3659,26 +3329,23 @@
         <v>189</v>
       </c>
       <c r="G97" t="n">
-        <v>18236.14200000001</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="I97" t="n">
-        <v>310</v>
-      </c>
-      <c r="J97" t="n">
-        <v>311</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3700,26 +3367,23 @@
         <v>3637.7817</v>
       </c>
       <c r="G98" t="n">
-        <v>14598.36030000001</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I98" t="n">
         <v>311</v>
       </c>
-      <c r="J98" t="n">
-        <v>311</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3741,26 +3405,23 @@
         <v>8.9627</v>
       </c>
       <c r="G99" t="n">
-        <v>14607.32300000001</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="I99" t="n">
-        <v>310</v>
-      </c>
-      <c r="J99" t="n">
-        <v>311</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3782,26 +3443,21 @@
         <v>4.4939</v>
       </c>
       <c r="G100" t="n">
-        <v>14607.32300000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
         <v>311</v>
       </c>
-      <c r="J100" t="n">
-        <v>311</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3823,26 +3479,21 @@
         <v>668.9232</v>
       </c>
       <c r="G101" t="n">
-        <v>15276.24620000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
         <v>311</v>
       </c>
-      <c r="J101" t="n">
-        <v>311</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3864,26 +3515,21 @@
         <v>1666.425</v>
       </c>
       <c r="G102" t="n">
-        <v>15276.24620000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>312</v>
-      </c>
-      <c r="J102" t="n">
-        <v>311</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3905,26 +3551,21 @@
         <v>554.7087</v>
       </c>
       <c r="G103" t="n">
-        <v>15276.24620000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>312</v>
-      </c>
-      <c r="J103" t="n">
-        <v>311</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3946,26 +3587,21 @@
         <v>379</v>
       </c>
       <c r="G104" t="n">
-        <v>15655.24620000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>312</v>
-      </c>
-      <c r="J104" t="n">
-        <v>311</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3987,26 +3623,21 @@
         <v>1930</v>
       </c>
       <c r="G105" t="n">
-        <v>15655.24620000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>313</v>
-      </c>
-      <c r="J105" t="n">
-        <v>311</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4028,24 +3659,21 @@
         <v>1930</v>
       </c>
       <c r="G106" t="n">
-        <v>15655.24620000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>311</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>311</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4067,24 +3695,21 @@
         <v>102.7354</v>
       </c>
       <c r="G107" t="n">
-        <v>15757.98160000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>311</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>311</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4106,24 +3731,21 @@
         <v>204.9531</v>
       </c>
       <c r="G108" t="n">
-        <v>15553.02850000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>311</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>311</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4145,24 +3767,21 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>15554.02850000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>311</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>311</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4184,24 +3803,21 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>15555.02850000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>311</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>311</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4223,24 +3839,21 @@
         <v>56.5759</v>
       </c>
       <c r="G111" t="n">
-        <v>15498.45260000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>311</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>311</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4262,24 +3875,21 @@
         <v>5622.4636</v>
       </c>
       <c r="G112" t="n">
-        <v>15498.45260000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>311</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>311</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4301,24 +3911,21 @@
         <v>512.1319</v>
       </c>
       <c r="G113" t="n">
-        <v>16010.58450000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>311</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>311</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4340,24 +3947,21 @@
         <v>1527.0773</v>
       </c>
       <c r="G114" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>311</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>311</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4379,24 +3983,21 @@
         <v>7400</v>
       </c>
       <c r="G115" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>311</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>311</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4418,24 +4019,21 @@
         <v>453.136</v>
       </c>
       <c r="G116" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>311</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>311</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4457,24 +4055,21 @@
         <v>693</v>
       </c>
       <c r="G117" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>311</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>311</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4496,24 +4091,21 @@
         <v>114</v>
       </c>
       <c r="G118" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>311</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>311</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4535,24 +4127,21 @@
         <v>480</v>
       </c>
       <c r="G119" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>311</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>311</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4574,24 +4163,21 @@
         <v>2215.23</v>
       </c>
       <c r="G120" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>311</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>311</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4613,24 +4199,21 @@
         <v>290</v>
       </c>
       <c r="G121" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>311</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>311</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4652,24 +4235,21 @@
         <v>1561.6335</v>
       </c>
       <c r="G122" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>311</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>311</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4691,24 +4271,21 @@
         <v>946</v>
       </c>
       <c r="G123" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>311</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>311</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4730,24 +4307,21 @@
         <v>843.4832</v>
       </c>
       <c r="G124" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>311</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>311</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4769,24 +4343,21 @@
         <v>2061.6291</v>
       </c>
       <c r="G125" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>311</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>311</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4808,24 +4379,21 @@
         <v>127.0566</v>
       </c>
       <c r="G126" t="n">
-        <v>14483.50720000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>311</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>311</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4847,26 +4415,21 @@
         <v>275.8998</v>
       </c>
       <c r="G127" t="n">
-        <v>14759.40700000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>314</v>
-      </c>
-      <c r="J127" t="n">
-        <v>311</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4888,24 +4451,21 @@
         <v>303.8222</v>
       </c>
       <c r="G128" t="n">
-        <v>14759.40700000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>311</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>311</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4927,26 +4487,21 @@
         <v>99.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>14759.40700000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>315</v>
-      </c>
-      <c r="J129" t="n">
-        <v>311</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4968,26 +4523,21 @@
         <v>64.56950000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>14759.40700000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>315</v>
-      </c>
-      <c r="J130" t="n">
-        <v>311</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5009,26 +4559,21 @@
         <v>1.8613</v>
       </c>
       <c r="G131" t="n">
-        <v>14759.40700000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>315</v>
-      </c>
-      <c r="J131" t="n">
-        <v>311</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5050,26 +4595,21 @@
         <v>3004.3161</v>
       </c>
       <c r="G132" t="n">
-        <v>14759.40700000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>315</v>
-      </c>
-      <c r="J132" t="n">
-        <v>311</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5091,26 +4631,21 @@
         <v>9</v>
       </c>
       <c r="G133" t="n">
-        <v>14768.40700000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>315</v>
-      </c>
-      <c r="J133" t="n">
-        <v>311</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5132,26 +4667,21 @@
         <v>46.5326</v>
       </c>
       <c r="G134" t="n">
-        <v>14814.93960000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>316</v>
-      </c>
-      <c r="J134" t="n">
-        <v>311</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5173,26 +4703,21 @@
         <v>6.6842</v>
       </c>
       <c r="G135" t="n">
-        <v>14808.25540000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>317</v>
-      </c>
-      <c r="J135" t="n">
-        <v>311</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5214,26 +4739,21 @@
         <v>68.32510000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>14876.58050000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>316</v>
-      </c>
-      <c r="J136" t="n">
-        <v>311</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5255,26 +4775,21 @@
         <v>676.0318</v>
       </c>
       <c r="G137" t="n">
-        <v>14876.58050000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>317</v>
-      </c>
-      <c r="J137" t="n">
-        <v>311</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5296,24 +4811,21 @@
         <v>14853.5031</v>
       </c>
       <c r="G138" t="n">
-        <v>29730.08360000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>311</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>311</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5335,24 +4847,21 @@
         <v>3034.6461</v>
       </c>
       <c r="G139" t="n">
-        <v>29730.08360000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>311</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>311</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5374,24 +4883,21 @@
         <v>28600.8965</v>
       </c>
       <c r="G140" t="n">
-        <v>58330.9801</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>311</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>311</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5413,24 +4919,21 @@
         <v>535.8432</v>
       </c>
       <c r="G141" t="n">
-        <v>58330.9801</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>311</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>311</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5452,24 +4955,21 @@
         <v>4.4474</v>
       </c>
       <c r="G142" t="n">
-        <v>58330.9801</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>311</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>311</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5491,24 +4991,21 @@
         <v>45.6562</v>
       </c>
       <c r="G143" t="n">
-        <v>58285.3239</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>311</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>311</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5530,24 +5027,21 @@
         <v>1661.9538</v>
       </c>
       <c r="G144" t="n">
-        <v>58285.3239</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>311</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>311</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5569,24 +5063,21 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>58286.3239</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>311</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>311</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5608,24 +5099,21 @@
         <v>9</v>
       </c>
       <c r="G146" t="n">
-        <v>58277.3239</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>311</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>311</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5647,24 +5135,21 @@
         <v>7.043887147335423</v>
       </c>
       <c r="G147" t="n">
-        <v>58284.36778714734</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>311</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>311</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5686,24 +5171,21 @@
         <v>9539.402</v>
       </c>
       <c r="G148" t="n">
-        <v>58284.36778714734</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>311</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>311</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5725,24 +5207,21 @@
         <v>2970.2996</v>
       </c>
       <c r="G149" t="n">
-        <v>61254.66738714734</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>311</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>311</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5764,24 +5243,21 @@
         <v>76.5074</v>
       </c>
       <c r="G150" t="n">
-        <v>61178.15998714734</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>311</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>311</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5803,24 +5279,21 @@
         <v>108</v>
       </c>
       <c r="G151" t="n">
-        <v>61178.15998714734</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>311</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>311</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5842,24 +5315,21 @@
         <v>3024.3484</v>
       </c>
       <c r="G152" t="n">
-        <v>58153.81158714733</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>311</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>311</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5881,24 +5351,21 @@
         <v>16434.5316</v>
       </c>
       <c r="G153" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>311</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>311</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5920,24 +5387,21 @@
         <v>4809.4541</v>
       </c>
       <c r="G154" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>311</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>311</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5959,24 +5423,21 @@
         <v>2892.5703</v>
       </c>
       <c r="G155" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>311</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>311</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5998,24 +5459,21 @@
         <v>16592.7156</v>
       </c>
       <c r="G156" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>311</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>311</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6037,24 +5495,21 @@
         <v>2451.7431</v>
       </c>
       <c r="G157" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>311</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>311</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6076,24 +5531,21 @@
         <v>1085.0986</v>
       </c>
       <c r="G158" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>311</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>311</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6115,24 +5567,21 @@
         <v>41773.2228</v>
       </c>
       <c r="G159" t="n">
-        <v>74588.34318714733</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>311</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>311</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6154,24 +5603,21 @@
         <v>110.2317</v>
       </c>
       <c r="G160" t="n">
-        <v>74478.11148714733</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>311</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>311</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6193,24 +5639,21 @@
         <v>805.4924999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>75283.60398714732</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>311</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>311</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6232,24 +5675,21 @@
         <v>1765.8911</v>
       </c>
       <c r="G162" t="n">
-        <v>77049.49508714731</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>311</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>311</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6271,24 +5711,21 @@
         <v>2592.3455</v>
       </c>
       <c r="G163" t="n">
-        <v>79641.84058714731</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>311</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>311</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6310,24 +5747,21 @@
         <v>478.8322</v>
       </c>
       <c r="G164" t="n">
-        <v>79641.84058714731</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>311</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>311</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6349,24 +5783,21 @@
         <v>746</v>
       </c>
       <c r="G165" t="n">
-        <v>79641.84058714731</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>311</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>311</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6388,24 +5819,21 @@
         <v>13512.9874</v>
       </c>
       <c r="G166" t="n">
-        <v>93154.82798714731</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>311</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>311</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6427,24 +5855,21 @@
         <v>1095.7509</v>
       </c>
       <c r="G167" t="n">
-        <v>93154.82798714731</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>311</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>311</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6466,24 +5891,21 @@
         <v>1298.0611</v>
       </c>
       <c r="G168" t="n">
-        <v>93154.82798714731</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>311</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>311</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6505,24 +5927,21 @@
         <v>15067.9758</v>
       </c>
       <c r="G169" t="n">
-        <v>93154.82798714731</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>311</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>311</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6544,24 +5963,21 @@
         <v>5.4303</v>
       </c>
       <c r="G170" t="n">
-        <v>93160.25828714731</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>311</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>311</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6583,24 +5999,21 @@
         <v>16297.1666</v>
       </c>
       <c r="G171" t="n">
-        <v>93160.25828714731</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>311</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>311</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6622,24 +6035,21 @@
         <v>169707.6877</v>
       </c>
       <c r="G172" t="n">
-        <v>262867.9459871473</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>311</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>311</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6661,24 +6071,21 @@
         <v>10842.2254</v>
       </c>
       <c r="G173" t="n">
-        <v>262867.9459871473</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>311</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1.043231511254019</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>311</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6700,18 +6107,21 @@
         <v>6182.6213</v>
       </c>
       <c r="G174" t="n">
-        <v>262867.9459871473</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>311</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6733,18 +6143,21 @@
         <v>7226.7872</v>
       </c>
       <c r="G175" t="n">
-        <v>270094.7331871474</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>311</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6766,18 +6179,21 @@
         <v>53567.5339</v>
       </c>
       <c r="G176" t="n">
-        <v>216527.1992871473</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>311</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6799,18 +6215,21 @@
         <v>2001.6868</v>
       </c>
       <c r="G177" t="n">
-        <v>216527.1992871473</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>311</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6832,18 +6251,21 @@
         <v>3206.1932</v>
       </c>
       <c r="G178" t="n">
-        <v>219733.3924871474</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>311</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6865,18 +6287,21 @@
         <v>13797.1279</v>
       </c>
       <c r="G179" t="n">
-        <v>233530.5203871473</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>311</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6898,18 +6323,21 @@
         <v>15645.8676</v>
       </c>
       <c r="G180" t="n">
-        <v>217884.6527871474</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>311</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6931,18 +6359,21 @@
         <v>599.2056</v>
       </c>
       <c r="G181" t="n">
-        <v>218483.8583871473</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>311</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6964,18 +6395,21 @@
         <v>206.6913</v>
       </c>
       <c r="G182" t="n">
-        <v>218483.8583871473</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>311</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6997,18 +6431,21 @@
         <v>5794.532</v>
       </c>
       <c r="G183" t="n">
-        <v>218483.8583871473</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>311</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7030,18 +6467,21 @@
         <v>4412.9028</v>
       </c>
       <c r="G184" t="n">
-        <v>218483.8583871473</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>311</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7063,18 +6503,21 @@
         <v>6898.5639</v>
       </c>
       <c r="G185" t="n">
-        <v>211585.2944871473</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>311</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7096,18 +6539,21 @@
         <v>103</v>
       </c>
       <c r="G186" t="n">
-        <v>211688.2944871473</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>311</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7129,18 +6575,21 @@
         <v>137</v>
       </c>
       <c r="G187" t="n">
-        <v>211551.2944871473</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>311</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7162,18 +6611,21 @@
         <v>2180.07</v>
       </c>
       <c r="G188" t="n">
-        <v>211551.2944871473</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>311</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7195,18 +6647,21 @@
         <v>1600.8344</v>
       </c>
       <c r="G189" t="n">
-        <v>209950.4600871473</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>311</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7228,18 +6683,21 @@
         <v>1231.2395</v>
       </c>
       <c r="G190" t="n">
-        <v>209950.4600871473</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>311</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7261,18 +6719,21 @@
         <v>188.2016</v>
       </c>
       <c r="G191" t="n">
-        <v>209762.2584871473</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>311</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7294,18 +6755,21 @@
         <v>1539.0348</v>
       </c>
       <c r="G192" t="n">
-        <v>211301.2932871473</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>311</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7327,18 +6791,21 @@
         <v>426.8908</v>
       </c>
       <c r="G193" t="n">
-        <v>211301.2932871473</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>311</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7360,18 +6827,21 @@
         <v>1724.4374</v>
       </c>
       <c r="G194" t="n">
-        <v>211301.2932871473</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>311</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7393,18 +6863,21 @@
         <v>3448.4683</v>
       </c>
       <c r="G195" t="n">
-        <v>211301.2932871473</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>311</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7426,18 +6899,21 @@
         <v>234.0908</v>
       </c>
       <c r="G196" t="n">
-        <v>211301.2932871473</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>311</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7459,18 +6935,21 @@
         <v>1051.6692</v>
       </c>
       <c r="G197" t="n">
-        <v>210249.6240871473</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>311</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7492,18 +6971,21 @@
         <v>772</v>
       </c>
       <c r="G198" t="n">
-        <v>210249.6240871473</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>311</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7525,18 +7007,21 @@
         <v>503.6794</v>
       </c>
       <c r="G199" t="n">
-        <v>210249.6240871473</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>311</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7558,18 +7043,21 @@
         <v>3222.6439</v>
       </c>
       <c r="G200" t="n">
-        <v>210249.6240871473</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>311</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7591,18 +7079,21 @@
         <v>7456.9294</v>
       </c>
       <c r="G201" t="n">
-        <v>202792.6946871473</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>311</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7624,18 +7115,21 @@
         <v>1833.3021</v>
       </c>
       <c r="G202" t="n">
-        <v>204625.9967871473</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>311</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7657,18 +7151,21 @@
         <v>803.5144</v>
       </c>
       <c r="G203" t="n">
-        <v>204625.9967871473</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>311</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7690,18 +7187,21 @@
         <v>2464.7037</v>
       </c>
       <c r="G204" t="n">
-        <v>204625.9967871473</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>311</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7723,18 +7223,21 @@
         <v>3272.944</v>
       </c>
       <c r="G205" t="n">
-        <v>204625.9967871473</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>311</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7756,18 +7259,21 @@
         <v>31278.2125</v>
       </c>
       <c r="G206" t="n">
-        <v>173347.7842871473</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>311</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7789,18 +7295,21 @@
         <v>3104.0604</v>
       </c>
       <c r="G207" t="n">
-        <v>176451.8446871473</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>311</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7822,18 +7331,21 @@
         <v>960.7938</v>
       </c>
       <c r="G208" t="n">
-        <v>175491.0508871473</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>311</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7855,18 +7367,21 @@
         <v>1107.9312</v>
       </c>
       <c r="G209" t="n">
-        <v>174383.1196871473</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>311</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7888,18 +7403,21 @@
         <v>785.3679</v>
       </c>
       <c r="G210" t="n">
-        <v>174383.1196871473</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>311</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7921,18 +7439,21 @@
         <v>43.2225</v>
       </c>
       <c r="G211" t="n">
-        <v>174383.1196871473</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>311</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7954,18 +7475,21 @@
         <v>96.53700000000001</v>
       </c>
       <c r="G212" t="n">
-        <v>174479.6566871473</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>311</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7987,18 +7511,21 @@
         <v>9.7281</v>
       </c>
       <c r="G213" t="n">
-        <v>174469.9285871473</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>311</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8020,18 +7547,21 @@
         <v>978.9577</v>
       </c>
       <c r="G214" t="n">
-        <v>174469.9285871473</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>311</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8053,18 +7583,21 @@
         <v>2592.236</v>
       </c>
       <c r="G215" t="n">
-        <v>171877.6925871473</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>311</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8086,18 +7619,21 @@
         <v>10842.3861</v>
       </c>
       <c r="G216" t="n">
-        <v>171877.6925871473</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>311</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8119,18 +7655,21 @@
         <v>3319.82</v>
       </c>
       <c r="G217" t="n">
-        <v>168557.8725871473</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>311</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8152,18 +7691,21 @@
         <v>73.44750000000001</v>
       </c>
       <c r="G218" t="n">
-        <v>168557.8725871473</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>311</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8185,18 +7727,21 @@
         <v>13.0195</v>
       </c>
       <c r="G219" t="n">
-        <v>168557.8725871473</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>311</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8218,18 +7763,21 @@
         <v>4862.5062</v>
       </c>
       <c r="G220" t="n">
-        <v>163695.3663871473</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>311</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8251,18 +7799,21 @@
         <v>102.4819</v>
       </c>
       <c r="G221" t="n">
-        <v>163797.8482871473</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>311</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8284,18 +7835,21 @@
         <v>208.5902</v>
       </c>
       <c r="G222" t="n">
-        <v>163589.2580871473</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>311</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8317,18 +7871,21 @@
         <v>3666.4477</v>
       </c>
       <c r="G223" t="n">
-        <v>159922.8103871473</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>311</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8350,18 +7907,21 @@
         <v>29.8927</v>
       </c>
       <c r="G224" t="n">
-        <v>159952.7030871473</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>311</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8383,18 +7943,21 @@
         <v>3042.3621</v>
       </c>
       <c r="G225" t="n">
-        <v>156910.3409871473</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>311</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8416,18 +7979,21 @@
         <v>1032.6187</v>
       </c>
       <c r="G226" t="n">
-        <v>156910.3409871473</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>311</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8449,18 +8015,21 @@
         <v>2832.0185</v>
       </c>
       <c r="G227" t="n">
-        <v>156910.3409871473</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>311</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8482,18 +8051,21 @@
         <v>33.7906</v>
       </c>
       <c r="G228" t="n">
-        <v>156876.5503871473</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>311</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8515,18 +8087,21 @@
         <v>2049.3984</v>
       </c>
       <c r="G229" t="n">
-        <v>154827.1519871473</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>311</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8548,18 +8123,21 @@
         <v>10005.8863</v>
       </c>
       <c r="G230" t="n">
-        <v>154827.1519871473</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>311</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8581,18 +8159,21 @@
         <v>176.6543</v>
       </c>
       <c r="G231" t="n">
-        <v>155003.8062871473</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>311</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8614,18 +8195,21 @@
         <v>31432.2594</v>
       </c>
       <c r="G232" t="n">
-        <v>186436.0656871473</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>311</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8647,18 +8231,21 @@
         <v>93.128</v>
       </c>
       <c r="G233" t="n">
-        <v>186529.1936871473</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>311</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8680,18 +8267,21 @@
         <v>16.9803</v>
       </c>
       <c r="G234" t="n">
-        <v>186529.1936871473</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>311</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8713,18 +8303,21 @@
         <v>197.0958</v>
       </c>
       <c r="G235" t="n">
-        <v>186726.2894871473</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>311</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8746,18 +8339,21 @@
         <v>3.2538</v>
       </c>
       <c r="G236" t="n">
-        <v>186726.2894871473</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>311</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8779,18 +8375,21 @@
         <v>100</v>
       </c>
       <c r="G237" t="n">
-        <v>186726.2894871473</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>311</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8812,18 +8411,21 @@
         <v>6606.567694392524</v>
       </c>
       <c r="G238" t="n">
-        <v>180119.7217927548</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>311</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8845,18 +8447,21 @@
         <v>786</v>
       </c>
       <c r="G239" t="n">
-        <v>180905.7217927548</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>311</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8878,18 +8483,21 @@
         <v>2.0656</v>
       </c>
       <c r="G240" t="n">
-        <v>180907.7873927548</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>311</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8911,18 +8519,21 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>180897.7873927548</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>311</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8944,18 +8555,21 @@
         <v>2.2626</v>
       </c>
       <c r="G242" t="n">
-        <v>180900.0499927548</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>311</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8977,18 +8591,21 @@
         <v>30.9866</v>
       </c>
       <c r="G243" t="n">
-        <v>180900.0499927548</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>311</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9010,18 +8627,21 @@
         <v>97</v>
       </c>
       <c r="G244" t="n">
-        <v>180900.0499927548</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>311</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9043,18 +8663,21 @@
         <v>439.7774</v>
       </c>
       <c r="G245" t="n">
-        <v>180900.0499927548</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>311</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9076,18 +8699,21 @@
         <v>313.2462</v>
       </c>
       <c r="G246" t="n">
-        <v>180586.8037927548</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>311</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9109,18 +8735,21 @@
         <v>1453.3568</v>
       </c>
       <c r="G247" t="n">
-        <v>182040.1605927548</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>311</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9142,18 +8771,21 @@
         <v>353.214953271028</v>
       </c>
       <c r="G248" t="n">
-        <v>182040.1605927548</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>311</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9175,18 +8807,21 @@
         <v>1168.4135</v>
       </c>
       <c r="G249" t="n">
-        <v>182040.1605927548</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>311</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9208,18 +8843,21 @@
         <v>400.5014523364486</v>
       </c>
       <c r="G250" t="n">
-        <v>182040.1605927548</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>311</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9241,18 +8879,21 @@
         <v>4060.9813</v>
       </c>
       <c r="G251" t="n">
-        <v>186101.1418927548</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>311</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9274,18 +8915,21 @@
         <v>232.8251</v>
       </c>
       <c r="G252" t="n">
-        <v>186101.1418927548</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>311</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9307,18 +8951,21 @@
         <v>372.8981</v>
       </c>
       <c r="G253" t="n">
-        <v>185728.2437927548</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>311</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9340,18 +8987,21 @@
         <v>781.7531</v>
       </c>
       <c r="G254" t="n">
-        <v>185728.2437927548</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>311</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9373,18 +9023,21 @@
         <v>18232.208</v>
       </c>
       <c r="G255" t="n">
-        <v>203960.4517927548</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>311</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9406,18 +9059,21 @@
         <v>28981.8612</v>
       </c>
       <c r="G256" t="n">
-        <v>232942.3129927548</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>311</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9439,18 +9095,21 @@
         <v>306.6953</v>
       </c>
       <c r="G257" t="n">
-        <v>232942.3129927548</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>311</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
